--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Python_Projects_And_Repos\Billscrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8027137-CFAF-4863-BAB0-5D87082F4EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A045BCBA-CDCE-4028-87A1-BD2E0BD28F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="265">
   <si>
     <t>Provider</t>
   </si>
@@ -28,913 +28,790 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>₹ Amt.</t>
-  </si>
-  <si>
-    <t>Adani Electricity</t>
+    <t>__UNNAMED__2</t>
+  </si>
+  <si>
+    <t>bses rajdhani pow</t>
+  </si>
+  <si>
+    <t>bses yamuna pow</t>
+  </si>
+  <si>
+    <t>Jaipur Vidyut Vitran Nigam</t>
   </si>
   <si>
     <t>Ajmer Vidyut Vitran Nigam</t>
   </si>
   <si>
-    <t>APDCL (Non-RAPDR)</t>
-  </si>
-  <si>
-    <t>BESCOM</t>
-  </si>
-  <si>
-    <t>BkESL</t>
-  </si>
-  <si>
-    <t>bses rajdhani pow</t>
-  </si>
-  <si>
-    <t>bses yamuna pow</t>
-  </si>
-  <si>
-    <t>calc</t>
-  </si>
-  <si>
-    <t>calcOM</t>
-  </si>
-  <si>
-    <t>chandi</t>
-  </si>
-  <si>
-    <t>DGVCL</t>
-  </si>
-  <si>
-    <t>DHBVN</t>
-  </si>
-  <si>
-    <t>Goa Electricity Department</t>
-  </si>
-  <si>
-    <t>HESCOM</t>
-  </si>
-  <si>
-    <t>Jaipur Vidyut Vitran Nigam</t>
-  </si>
-  <si>
-    <t>Jodhpur Vidyut Vitran Nigam</t>
-  </si>
-  <si>
-    <t>Kota Electricity Distribution</t>
-  </si>
-  <si>
-    <t>KSEBL</t>
-  </si>
-  <si>
-    <t>Madhya Kshetra Vitaran (Urban)</t>
-  </si>
-  <si>
-    <t>mahara</t>
-  </si>
-  <si>
-    <t>MVVNL</t>
-  </si>
-  <si>
-    <t>Paschim Gujarat Vij Company Limited (PGVCL)</t>
-  </si>
-  <si>
-    <t>paschim kshe</t>
-  </si>
-  <si>
-    <t>PSPCL</t>
-  </si>
-  <si>
-    <t>PVVNL</t>
-  </si>
-  <si>
-    <t>tata power - mumbai</t>
-  </si>
-  <si>
-    <t>TNEB</t>
-  </si>
-  <si>
-    <t>Torrent Power</t>
-  </si>
-  <si>
-    <t>tp central</t>
-  </si>
-  <si>
-    <t>UGVCL</t>
-  </si>
-  <si>
-    <t>UHBVN</t>
-  </si>
-  <si>
-    <t>UPCL</t>
-  </si>
-  <si>
-    <t>uttarakhand</t>
-  </si>
-  <si>
-    <t>150933080</t>
-  </si>
-  <si>
-    <t>152982082</t>
-  </si>
-  <si>
-    <t>152519039</t>
-  </si>
-  <si>
-    <t>153317590</t>
-  </si>
-  <si>
-    <t>153317591</t>
-  </si>
-  <si>
-    <t>152519037</t>
-  </si>
-  <si>
-    <t>152969529</t>
-  </si>
-  <si>
-    <t>153317589</t>
-  </si>
-  <si>
-    <t>152519033</t>
-  </si>
-  <si>
-    <t>152519041</t>
-  </si>
-  <si>
-    <t>120136025442</t>
-  </si>
-  <si>
-    <t>120222047314</t>
-  </si>
-  <si>
-    <t>120134041344</t>
-  </si>
-  <si>
-    <t>130121032882</t>
-  </si>
-  <si>
-    <t>120136030590</t>
-  </si>
-  <si>
-    <t>120133030061</t>
-  </si>
-  <si>
-    <t>110213030264</t>
-  </si>
-  <si>
-    <t>110213020955</t>
-  </si>
-  <si>
-    <t>110213020954</t>
-  </si>
-  <si>
-    <t>110111018586</t>
-  </si>
-  <si>
-    <t>110442002411</t>
-  </si>
-  <si>
-    <t>110111018577</t>
-  </si>
-  <si>
-    <t>110111018491</t>
-  </si>
-  <si>
-    <t>110111018481</t>
-  </si>
-  <si>
-    <t>110111018580</t>
-  </si>
-  <si>
-    <t>110111018592</t>
-  </si>
-  <si>
-    <t>006000003454</t>
-  </si>
-  <si>
-    <t>210010060164</t>
-  </si>
-  <si>
-    <t>017000003487</t>
-  </si>
-  <si>
-    <t>4123928767</t>
-  </si>
-  <si>
-    <t>0906335691</t>
-  </si>
-  <si>
-    <t>2051865000</t>
-  </si>
-  <si>
-    <t>4931556871</t>
-  </si>
-  <si>
-    <t>7491237049</t>
-  </si>
-  <si>
-    <t>7882229000</t>
-  </si>
-  <si>
-    <t>4716092000</t>
-  </si>
-  <si>
-    <t>0910699466</t>
-  </si>
-  <si>
-    <t>5144907209</t>
-  </si>
-  <si>
-    <t>0835216054</t>
-  </si>
-  <si>
-    <t>4276587749</t>
-  </si>
-  <si>
-    <t>4183764266</t>
-  </si>
-  <si>
-    <t>1393944988</t>
-  </si>
-  <si>
-    <t>0162830147</t>
-  </si>
-  <si>
-    <t>9414110473</t>
-  </si>
-  <si>
-    <t>310161025387</t>
-  </si>
-  <si>
-    <t>310161007299</t>
-  </si>
-  <si>
-    <t>310161007298</t>
-  </si>
-  <si>
-    <t>310161024748</t>
-  </si>
-  <si>
-    <t>310161000239</t>
-  </si>
-  <si>
-    <t>310111027839</t>
-  </si>
-  <si>
-    <t>310162012185</t>
-  </si>
-  <si>
-    <t>310161016570</t>
-  </si>
-  <si>
-    <t>310162011294</t>
-  </si>
-  <si>
-    <t>150015642</t>
-  </si>
-  <si>
-    <t>154310981</t>
-  </si>
-  <si>
-    <t>154406914</t>
-  </si>
-  <si>
-    <t>153267601</t>
-  </si>
-  <si>
-    <t>153267595</t>
-  </si>
-  <si>
-    <t>154430545</t>
-  </si>
-  <si>
-    <t>100144687</t>
-  </si>
-  <si>
-    <t>101907605</t>
-  </si>
-  <si>
-    <t>154255574</t>
-  </si>
-  <si>
-    <t>154397528</t>
-  </si>
-  <si>
-    <t>152483019</t>
-  </si>
-  <si>
-    <t>154397530</t>
-  </si>
-  <si>
-    <t>154011282</t>
-  </si>
-  <si>
-    <t>154419276</t>
-  </si>
-  <si>
-    <t>154255577</t>
-  </si>
-  <si>
-    <t>154397525</t>
-  </si>
-  <si>
-    <t>154397527</t>
-  </si>
-  <si>
-    <t>153276582</t>
-  </si>
-  <si>
-    <t>154419351</t>
-  </si>
-  <si>
-    <t>154430546</t>
-  </si>
-  <si>
-    <t>154400489</t>
-  </si>
-  <si>
-    <t>154272822</t>
-  </si>
-  <si>
-    <t>154000439</t>
-  </si>
-  <si>
-    <t>154430544</t>
-  </si>
-  <si>
-    <t>154169184</t>
-  </si>
-  <si>
-    <t>154161035</t>
-  </si>
-  <si>
-    <t>153948363</t>
-  </si>
-  <si>
-    <t>153948354</t>
-  </si>
-  <si>
-    <t>153948356</t>
-  </si>
-  <si>
-    <t>153974957</t>
-  </si>
-  <si>
-    <t>153948366</t>
-  </si>
-  <si>
-    <t>153932234</t>
-  </si>
-  <si>
-    <t>85000042713</t>
-  </si>
-  <si>
-    <t>18000190976</t>
-  </si>
-  <si>
-    <t>18000190949</t>
-  </si>
-  <si>
-    <t>18000190931</t>
-  </si>
-  <si>
-    <t>18000190958</t>
-  </si>
-  <si>
-    <t>18000190967</t>
-  </si>
-  <si>
-    <t>61000471235</t>
-  </si>
-  <si>
-    <t>12000789672</t>
-  </si>
-  <si>
-    <t>57000692568</t>
-  </si>
-  <si>
-    <t>57000143163</t>
-  </si>
-  <si>
-    <t>57000148894</t>
-  </si>
-  <si>
-    <t>57000567318</t>
-  </si>
-  <si>
-    <t>61000231284</t>
-  </si>
-  <si>
-    <t>61000576649</t>
-  </si>
-  <si>
-    <t>61000078833</t>
-  </si>
-  <si>
-    <t>57000387786</t>
-  </si>
-  <si>
-    <t>61000078969</t>
-  </si>
-  <si>
-    <t>57000137729</t>
-  </si>
-  <si>
-    <t>12000042794</t>
-  </si>
-  <si>
-    <t>68000304365</t>
-  </si>
-  <si>
-    <t>9022302880</t>
-  </si>
-  <si>
-    <t>4122528893</t>
-  </si>
-  <si>
-    <t>3607358832</t>
-  </si>
-  <si>
-    <t>3443204851</t>
-  </si>
-  <si>
-    <t>1479593851</t>
-  </si>
-  <si>
-    <t>8747864808</t>
-  </si>
-  <si>
-    <t>1091092305</t>
-  </si>
-  <si>
-    <t>2273182099</t>
-  </si>
-  <si>
-    <t>2432244788</t>
-  </si>
-  <si>
-    <t>IA94080800H</t>
-  </si>
-  <si>
-    <t>3441036009W</t>
-  </si>
-  <si>
-    <t>3441036008U</t>
-  </si>
-  <si>
-    <t>3441036013Q</t>
-  </si>
-  <si>
-    <t>3441036006R</t>
-  </si>
-  <si>
-    <t>3441036014R</t>
-  </si>
-  <si>
-    <t>18307201985</t>
-  </si>
-  <si>
-    <t>18307202000</t>
-  </si>
-  <si>
-    <t>18307201993</t>
-  </si>
-  <si>
-    <t>42524236846</t>
-  </si>
-  <si>
-    <t>18307202035</t>
-  </si>
-  <si>
-    <t>18307202027</t>
-  </si>
-  <si>
-    <t>18307201950</t>
-  </si>
-  <si>
-    <t>18307201977</t>
-  </si>
-  <si>
-    <t>18307202043</t>
-  </si>
-  <si>
-    <t>18307202019</t>
-  </si>
-  <si>
-    <t>18307201969</t>
-  </si>
-  <si>
-    <t>18307201853</t>
-  </si>
-  <si>
-    <t>9786070297</t>
-  </si>
-  <si>
-    <t>7633597005</t>
-  </si>
-  <si>
-    <t>6421001000</t>
-  </si>
-  <si>
-    <t>60002146128</t>
-  </si>
-  <si>
-    <t>2237478583</t>
-  </si>
-  <si>
-    <t>4677263233</t>
-  </si>
-  <si>
-    <t>211423018408</t>
-  </si>
-  <si>
-    <t>211424026529</t>
-  </si>
-  <si>
-    <t>211421036624</t>
-  </si>
-  <si>
-    <t>211443034022</t>
-  </si>
-  <si>
-    <t>210434026442</t>
-  </si>
-  <si>
-    <t>211424030640</t>
-  </si>
-  <si>
-    <t>211421042161</t>
-  </si>
-  <si>
-    <t>210114052125</t>
-  </si>
-  <si>
-    <t>210414036293</t>
-  </si>
-  <si>
-    <t>211441034485</t>
-  </si>
-  <si>
-    <t>210411024015</t>
-  </si>
-  <si>
-    <t>211421034438</t>
-  </si>
-  <si>
-    <t>210414026834</t>
-  </si>
-  <si>
-    <t>211443040391</t>
-  </si>
-  <si>
-    <t>210472041364</t>
-  </si>
-  <si>
-    <t>211464065771</t>
-  </si>
-  <si>
-    <t>210416034473</t>
-  </si>
-  <si>
-    <t>211465037414</t>
-  </si>
-  <si>
-    <t>211463079998</t>
-  </si>
-  <si>
-    <t>211462072447</t>
-  </si>
-  <si>
-    <t>211423021056</t>
-  </si>
-  <si>
-    <t>320232026403</t>
-  </si>
-  <si>
-    <t>320244022148</t>
-  </si>
-  <si>
-    <t>320212022799</t>
-  </si>
-  <si>
-    <t>310531020151</t>
-  </si>
-  <si>
-    <t>310531022398</t>
-  </si>
-  <si>
-    <t>320232025185</t>
-  </si>
-  <si>
-    <t>210722020213</t>
-  </si>
-  <si>
-    <t>210736018295</t>
-  </si>
-  <si>
-    <t>210721026295</t>
-  </si>
-  <si>
-    <t>210722003662</t>
-  </si>
-  <si>
-    <t>210722015778</t>
-  </si>
-  <si>
-    <t>210736016276</t>
-  </si>
-  <si>
-    <t>210722018641</t>
-  </si>
-  <si>
-    <t>210722010764</t>
-  </si>
-  <si>
-    <t>210721012047</t>
-  </si>
-  <si>
-    <t>210722005142</t>
-  </si>
-  <si>
-    <t>210736032934</t>
-  </si>
-  <si>
-    <t>210722024719</t>
-  </si>
-  <si>
-    <t>210727000074</t>
-  </si>
-  <si>
-    <t>210722022595</t>
-  </si>
-  <si>
-    <t>210727016523</t>
-  </si>
-  <si>
-    <t>210722019167</t>
-  </si>
-  <si>
-    <t>210722001747</t>
-  </si>
-  <si>
-    <t>1155434036539</t>
-  </si>
-  <si>
-    <t>N2468016321</t>
-  </si>
-  <si>
-    <t>N2211017221</t>
-  </si>
-  <si>
-    <t>N2211004048</t>
-  </si>
-  <si>
-    <t>N2502024841</t>
-  </si>
-  <si>
-    <t>049017453598</t>
-  </si>
-  <si>
-    <t>066154023322</t>
-  </si>
-  <si>
-    <t>065513969052</t>
-  </si>
-  <si>
-    <t>049017453580</t>
-  </si>
-  <si>
-    <t>170147934869</t>
-  </si>
-  <si>
-    <t>170055091148</t>
-  </si>
-  <si>
-    <t>410013884459</t>
-  </si>
-  <si>
-    <t>170561614621</t>
-  </si>
-  <si>
-    <t>000339033090</t>
-  </si>
-  <si>
-    <t>160261060300</t>
-  </si>
-  <si>
-    <t>170200427770</t>
-  </si>
-  <si>
-    <t>2917937203</t>
-  </si>
-  <si>
-    <t>2529769470</t>
-  </si>
-  <si>
-    <t>29714</t>
-  </si>
-  <si>
-    <t>N3001030182</t>
-  </si>
-  <si>
-    <t>N3973005890</t>
-  </si>
-  <si>
-    <t>N3471039746</t>
-  </si>
-  <si>
-    <t>N3001030189</t>
-  </si>
-  <si>
-    <t>N3684023770</t>
-  </si>
-  <si>
-    <t>N3973015247</t>
-  </si>
-  <si>
-    <t>N3372046363</t>
-  </si>
-  <si>
-    <t>N3378030243</t>
-  </si>
-  <si>
-    <t>3003007258</t>
-  </si>
-  <si>
-    <t>3008306068</t>
-  </si>
-  <si>
-    <t>2661342323</t>
-  </si>
-  <si>
-    <t>9671829265</t>
-  </si>
-  <si>
-    <t>0120873820</t>
-  </si>
-  <si>
-    <t>900001214234</t>
-  </si>
-  <si>
-    <t>900000039480</t>
-  </si>
-  <si>
-    <t>900001214180</t>
-  </si>
-  <si>
-    <t>900000039464</t>
-  </si>
-  <si>
-    <t>900001214175</t>
-  </si>
-  <si>
-    <t>900001214178</t>
-  </si>
-  <si>
-    <t>092370221654</t>
-  </si>
-  <si>
-    <t>092452434573</t>
-  </si>
-  <si>
-    <t>050050031765</t>
-  </si>
-  <si>
-    <t>092630043737</t>
-  </si>
-  <si>
-    <t>011490292228</t>
-  </si>
-  <si>
-    <t>09251501768</t>
-  </si>
-  <si>
-    <t>094410045434</t>
-  </si>
-  <si>
-    <t>093270022948</t>
-  </si>
-  <si>
-    <t>093270022949</t>
-  </si>
-  <si>
-    <t>093270022779</t>
-  </si>
-  <si>
-    <t>100613410</t>
-  </si>
-  <si>
-    <t>3267849</t>
-  </si>
-  <si>
-    <t>100044125</t>
-  </si>
-  <si>
-    <t>3267848</t>
-  </si>
-  <si>
-    <t>100555081</t>
-  </si>
-  <si>
-    <t>100551485</t>
-  </si>
-  <si>
-    <t>100234664</t>
-  </si>
-  <si>
-    <t>100555084</t>
-  </si>
-  <si>
-    <t>100551484</t>
-  </si>
-  <si>
-    <t>100555083</t>
-  </si>
-  <si>
-    <t>100234636</t>
-  </si>
-  <si>
-    <t>100551483</t>
-  </si>
-  <si>
-    <t>100370709</t>
-  </si>
-  <si>
-    <t>100234662</t>
-  </si>
-  <si>
-    <t>100728080</t>
-  </si>
-  <si>
-    <t>100551486</t>
-  </si>
-  <si>
-    <t>100555082</t>
-  </si>
-  <si>
-    <t>501135487</t>
-  </si>
-  <si>
-    <t>501135493</t>
-  </si>
-  <si>
-    <t>501157114</t>
-  </si>
-  <si>
-    <t>501135506</t>
-  </si>
-  <si>
-    <t>501135504</t>
-  </si>
-  <si>
-    <t>80034100406</t>
-  </si>
-  <si>
-    <t>74801148808</t>
-  </si>
-  <si>
-    <t>73049309059</t>
-  </si>
-  <si>
-    <t>71930238185</t>
-  </si>
-  <si>
-    <t>5784160000</t>
-  </si>
-  <si>
-    <t>0374623514</t>
-  </si>
-  <si>
-    <t>2906549045</t>
-  </si>
-  <si>
-    <t>40106964140</t>
-  </si>
-  <si>
-    <t>40106962555</t>
-  </si>
-  <si>
-    <t>40106962199</t>
-  </si>
-  <si>
-    <t>40106964434</t>
-  </si>
-  <si>
-    <t>40106964671</t>
-  </si>
-  <si>
-    <t>40106965058</t>
-  </si>
-  <si>
-    <t>42200438315</t>
-  </si>
-  <si>
-    <t>42100178588</t>
-  </si>
-  <si>
-    <t>42200773416</t>
-  </si>
-  <si>
-    <t>42200441855</t>
+    <t>LIC Of India</t>
+  </si>
+  <si>
+    <t>102651147</t>
+  </si>
+  <si>
+    <t>150622958</t>
+  </si>
+  <si>
+    <t>153398051</t>
+  </si>
+  <si>
+    <t>101405110</t>
+  </si>
+  <si>
+    <t>211462023990</t>
+  </si>
+  <si>
+    <t>102172229</t>
+  </si>
+  <si>
+    <t>154392199</t>
+  </si>
+  <si>
+    <t>60020899724</t>
+  </si>
+  <si>
+    <t>102681876</t>
+  </si>
+  <si>
+    <t>150177608</t>
+  </si>
+  <si>
+    <t>151257610</t>
+  </si>
+  <si>
+    <t>102731220</t>
+  </si>
+  <si>
+    <t>150385101</t>
+  </si>
+  <si>
+    <t>101348934</t>
+  </si>
+  <si>
+    <t>60012713230</t>
+  </si>
+  <si>
+    <t>151046267</t>
+  </si>
+  <si>
+    <t>154326954</t>
+  </si>
+  <si>
+    <t>151162195</t>
+  </si>
+  <si>
+    <t>150807067</t>
+  </si>
+  <si>
+    <t>101000865</t>
+  </si>
+  <si>
+    <t>100810925</t>
+  </si>
+  <si>
+    <t>211462013387</t>
+  </si>
+  <si>
+    <t>100835823</t>
+  </si>
+  <si>
+    <t>151083765</t>
+  </si>
+  <si>
+    <t>151029076</t>
+  </si>
+  <si>
+    <t>151068978</t>
+  </si>
+  <si>
+    <t>60001247588</t>
+  </si>
+  <si>
+    <t>211462025963</t>
+  </si>
+  <si>
+    <t>154004366</t>
+  </si>
+  <si>
+    <t>60024142238</t>
+  </si>
+  <si>
+    <t>100756554</t>
+  </si>
+  <si>
+    <t>153165050</t>
+  </si>
+  <si>
+    <t>100696495</t>
+  </si>
+  <si>
+    <t>100314174</t>
+  </si>
+  <si>
+    <t>153031436</t>
+  </si>
+  <si>
+    <t>210113028994</t>
+  </si>
+  <si>
+    <t>151109863</t>
+  </si>
+  <si>
+    <t>151109862</t>
+  </si>
+  <si>
+    <t>110111032584</t>
+  </si>
+  <si>
+    <t>152844033</t>
+  </si>
+  <si>
+    <t>151708619</t>
+  </si>
+  <si>
+    <t>100376768</t>
+  </si>
+  <si>
+    <t>101778352</t>
+  </si>
+  <si>
+    <t>101452872</t>
+  </si>
+  <si>
+    <t>152125778</t>
+  </si>
+  <si>
+    <t>152156117</t>
+  </si>
+  <si>
+    <t>152060628</t>
+  </si>
+  <si>
+    <t>100261849</t>
+  </si>
+  <si>
+    <t>150189509</t>
+  </si>
+  <si>
+    <t>151622391</t>
+  </si>
+  <si>
+    <t>154105352</t>
+  </si>
+  <si>
+    <t>151031910</t>
+  </si>
+  <si>
+    <t>152937026</t>
+  </si>
+  <si>
+    <t>60003590449</t>
+  </si>
+  <si>
+    <t>60017703103</t>
+  </si>
+  <si>
+    <t>151795065</t>
+  </si>
+  <si>
+    <t>103397306</t>
+  </si>
+  <si>
+    <t>60031861838</t>
+  </si>
+  <si>
+    <t>100431285</t>
+  </si>
+  <si>
+    <t>153018082</t>
+  </si>
+  <si>
+    <t>153601306</t>
+  </si>
+  <si>
+    <t>150567499</t>
+  </si>
+  <si>
+    <t>152772488</t>
+  </si>
+  <si>
+    <t>210911031132</t>
+  </si>
+  <si>
+    <t>152352857</t>
+  </si>
+  <si>
+    <t>150465981</t>
+  </si>
+  <si>
+    <t>153079841</t>
+  </si>
+  <si>
+    <t>60005451897</t>
+  </si>
+  <si>
+    <t>101394423</t>
+  </si>
+  <si>
+    <t>150699468</t>
+  </si>
+  <si>
+    <t>100353143</t>
+  </si>
+  <si>
+    <t>100954912</t>
+  </si>
+  <si>
+    <t>101889071</t>
+  </si>
+  <si>
+    <t>102697846</t>
+  </si>
+  <si>
+    <t>153214184</t>
+  </si>
+  <si>
+    <t>152790565</t>
+  </si>
+  <si>
+    <t>152602034</t>
+  </si>
+  <si>
+    <t>154201264</t>
+  </si>
+  <si>
+    <t>150462961</t>
+  </si>
+  <si>
+    <t>152328748</t>
+  </si>
+  <si>
+    <t>150948323</t>
+  </si>
+  <si>
+    <t>154052095</t>
+  </si>
+  <si>
+    <t>101501906</t>
+  </si>
+  <si>
+    <t>211462023764</t>
+  </si>
+  <si>
+    <t>101379584</t>
+  </si>
+  <si>
+    <t>151668546</t>
+  </si>
+  <si>
+    <t>154000659</t>
+  </si>
+  <si>
+    <t>154076893</t>
+  </si>
+  <si>
+    <t>151365678</t>
+  </si>
+  <si>
+    <t>152684284</t>
+  </si>
+  <si>
+    <t>150193173</t>
+  </si>
+  <si>
+    <t>152062013</t>
+  </si>
+  <si>
+    <t>153209764</t>
+  </si>
+  <si>
+    <t>101273039</t>
+  </si>
+  <si>
+    <t>101619467</t>
+  </si>
+  <si>
+    <t>151326927</t>
+  </si>
+  <si>
+    <t>154407713</t>
+  </si>
+  <si>
+    <t>154031410</t>
+  </si>
+  <si>
+    <t>153494790</t>
+  </si>
+  <si>
+    <t>154068769</t>
+  </si>
+  <si>
+    <t>152496702</t>
+  </si>
+  <si>
+    <t>152518577</t>
+  </si>
+  <si>
+    <t>102688030</t>
+  </si>
+  <si>
+    <t>103409705</t>
+  </si>
+  <si>
+    <t>60008330213</t>
+  </si>
+  <si>
+    <t>150935731</t>
+  </si>
+  <si>
+    <t>101857197</t>
+  </si>
+  <si>
+    <t>101857182</t>
+  </si>
+  <si>
+    <t>153363877</t>
+  </si>
+  <si>
+    <t>101687627</t>
+  </si>
+  <si>
+    <t>60024555587</t>
+  </si>
+  <si>
+    <t>153167300</t>
+  </si>
+  <si>
+    <t>101502669</t>
+  </si>
+  <si>
+    <t>101502644</t>
+  </si>
+  <si>
+    <t>101628435</t>
+  </si>
+  <si>
+    <t>103347764</t>
+  </si>
+  <si>
+    <t>211462013606</t>
+  </si>
+  <si>
+    <t>101347590</t>
+  </si>
+  <si>
+    <t>103347747</t>
+  </si>
+  <si>
+    <t>154133443</t>
+  </si>
+  <si>
+    <t>101490274</t>
+  </si>
+  <si>
+    <t>150315363</t>
+  </si>
+  <si>
+    <t>150792546</t>
+  </si>
+  <si>
+    <t>151238563</t>
+  </si>
+  <si>
+    <t>103346900</t>
+  </si>
+  <si>
+    <t>102716832</t>
+  </si>
+  <si>
+    <t>152242561</t>
+  </si>
+  <si>
+    <t>154118337</t>
+  </si>
+  <si>
+    <t>152866076</t>
+  </si>
+  <si>
+    <t>152668823</t>
+  </si>
+  <si>
+    <t>152527789</t>
+  </si>
+  <si>
+    <t>152756268</t>
+  </si>
+  <si>
+    <t>883861107</t>
+  </si>
+  <si>
+    <t>150331613</t>
+  </si>
+  <si>
+    <t>060017702766</t>
+  </si>
+  <si>
+    <t>154456025</t>
+  </si>
+  <si>
+    <t>100329946</t>
+  </si>
+  <si>
+    <t>101558726</t>
+  </si>
+  <si>
+    <t>150074590</t>
+  </si>
+  <si>
+    <t>102674711</t>
+  </si>
+  <si>
+    <t>103180074</t>
+  </si>
+  <si>
+    <t>153614020</t>
+  </si>
+  <si>
+    <t>100241730</t>
+  </si>
+  <si>
+    <t>150913124</t>
+  </si>
+  <si>
+    <t>60022909927</t>
+  </si>
+  <si>
+    <t>101532285</t>
+  </si>
+  <si>
+    <t>154112151</t>
+  </si>
+  <si>
+    <t>152746002</t>
+  </si>
+  <si>
+    <t>152652684</t>
+  </si>
+  <si>
+    <t>150929489</t>
+  </si>
+  <si>
+    <t>151272762</t>
+  </si>
+  <si>
+    <t>102698165</t>
+  </si>
+  <si>
+    <t>154065622</t>
+  </si>
+  <si>
+    <t>60018694681</t>
+  </si>
+  <si>
+    <t>154285301</t>
+  </si>
+  <si>
+    <t>60023401379</t>
+  </si>
+  <si>
+    <t>151388215</t>
+  </si>
+  <si>
+    <t>102605486</t>
+  </si>
+  <si>
+    <t>151609733</t>
+  </si>
+  <si>
+    <t>101501599</t>
+  </si>
+  <si>
+    <t>100671193</t>
+  </si>
+  <si>
+    <t>154455630</t>
+  </si>
+  <si>
+    <t>150445917</t>
+  </si>
+  <si>
+    <t>102169235</t>
+  </si>
+  <si>
+    <t>151264812</t>
+  </si>
+  <si>
+    <t>103221223</t>
+  </si>
+  <si>
+    <t>101330781</t>
+  </si>
+  <si>
+    <t>151980221</t>
+  </si>
+  <si>
+    <t>153954070</t>
+  </si>
+  <si>
+    <t>102117929</t>
+  </si>
+  <si>
+    <t>102659664</t>
+  </si>
+  <si>
+    <t>101219200</t>
+  </si>
+  <si>
+    <t>152330680</t>
+  </si>
+  <si>
+    <t>102972883</t>
+  </si>
+  <si>
+    <t>100942986</t>
+  </si>
+  <si>
+    <t>100712160</t>
+  </si>
+  <si>
+    <t>103287875</t>
+  </si>
+  <si>
+    <t>102781355</t>
+  </si>
+  <si>
+    <t>153282407</t>
+  </si>
+  <si>
+    <t>101502255</t>
+  </si>
+  <si>
+    <t>154083377</t>
+  </si>
+  <si>
+    <t>100810913</t>
+  </si>
+  <si>
+    <t>152855532</t>
+  </si>
+  <si>
+    <t>150376084</t>
+  </si>
+  <si>
+    <t>152129398</t>
+  </si>
+  <si>
+    <t>102727529</t>
+  </si>
+  <si>
+    <t>150327815</t>
+  </si>
+  <si>
+    <t>102693890</t>
+  </si>
+  <si>
+    <t>150217146</t>
+  </si>
+  <si>
+    <t>102724244</t>
+  </si>
+  <si>
+    <t>150344561</t>
+  </si>
+  <si>
+    <t>211462003641</t>
+  </si>
+  <si>
+    <t>151782995</t>
+  </si>
+  <si>
+    <t>151296880</t>
+  </si>
+  <si>
+    <t>102672933</t>
+  </si>
+  <si>
+    <t>150385765</t>
+  </si>
+  <si>
+    <t>151068408</t>
+  </si>
+  <si>
+    <t>152953325</t>
+  </si>
+  <si>
+    <t>102699865</t>
+  </si>
+  <si>
+    <t>101736488</t>
+  </si>
+  <si>
+    <t>60003366527</t>
+  </si>
+  <si>
+    <t>60009515838</t>
+  </si>
+  <si>
+    <t>151747717</t>
+  </si>
+  <si>
+    <t>101844801</t>
+  </si>
+  <si>
+    <t>101211520</t>
+  </si>
+  <si>
+    <t>100736057</t>
+  </si>
+  <si>
+    <t>100255286</t>
+  </si>
+  <si>
+    <t>152833233</t>
+  </si>
+  <si>
+    <t>152209496</t>
+  </si>
+  <si>
+    <t>937151800</t>
+  </si>
+  <si>
+    <t>102781252</t>
+  </si>
+  <si>
+    <t>154126874</t>
+  </si>
+  <si>
+    <t>884293945</t>
+  </si>
+  <si>
+    <t>101538614</t>
+  </si>
+  <si>
+    <t>100761191</t>
+  </si>
+  <si>
+    <t>60005608116</t>
+  </si>
+  <si>
+    <t>151263083</t>
+  </si>
+  <si>
+    <t>154074863</t>
+  </si>
+  <si>
+    <t>100801192</t>
+  </si>
+  <si>
+    <t>154074866</t>
+  </si>
+  <si>
+    <t>153055171</t>
+  </si>
+  <si>
+    <t>60000179154</t>
+  </si>
+  <si>
+    <t>150617951</t>
+  </si>
+  <si>
+    <t>152849554</t>
+  </si>
+  <si>
+    <t>103224590</t>
+  </si>
+  <si>
+    <t>102645490</t>
+  </si>
+  <si>
+    <t>150555905</t>
+  </si>
+  <si>
+    <t>102653500</t>
+  </si>
+  <si>
+    <t>152840925</t>
+  </si>
+  <si>
+    <t>152029671</t>
+  </si>
+  <si>
+    <t>151810219</t>
+  </si>
+  <si>
+    <t>101517448</t>
+  </si>
+  <si>
+    <t>153176282</t>
+  </si>
+  <si>
+    <t>154092231</t>
+  </si>
+  <si>
+    <t>100733181</t>
+  </si>
+  <si>
+    <t>153969209</t>
+  </si>
+  <si>
+    <t>150447415</t>
+  </si>
+  <si>
+    <t>103025185</t>
+  </si>
+  <si>
+    <t>102689521</t>
+  </si>
+  <si>
+    <t>151679688</t>
+  </si>
+  <si>
+    <t>60005490267</t>
+  </si>
+  <si>
+    <t>151238952</t>
+  </si>
+  <si>
+    <t>152097865</t>
+  </si>
+  <si>
+    <t>151763584</t>
+  </si>
+  <si>
+    <t>151729091</t>
+  </si>
+  <si>
+    <t>101636604</t>
+  </si>
+  <si>
+    <t>101822478</t>
+  </si>
+  <si>
+    <t>102628597</t>
+  </si>
+  <si>
+    <t>151346173</t>
+  </si>
+  <si>
+    <t>153243331</t>
+  </si>
+  <si>
+    <t>102054931</t>
+  </si>
+  <si>
+    <t>101537374</t>
+  </si>
+  <si>
+    <t>153616976</t>
+  </si>
+  <si>
+    <t>154104456</t>
+  </si>
+  <si>
+    <t>154433150</t>
+  </si>
+  <si>
+    <t>tata power - delhi</t>
   </si>
   <si>
     <t>BU</t>
@@ -944,6 +821,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -953,18 +833,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -979,22 +853,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+      <numFmt numFmtId="164" formatCode="#,##0.000;[Red]\-#,##0.000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1010,15 +883,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:D284" totalsRowShown="0">
-  <autoFilter ref="A1:D284" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D284">
-    <sortCondition ref="D1:D284"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:D256" totalsRowShown="0">
+  <autoFilter ref="A1:D256" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Provider"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mobile"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="₹ Amt." dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="__UNNAMED__2" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="BU"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1312,16 +1182,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D284"/>
+  <dimension ref="A1:D256"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1335,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>305</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1343,22 +1213,22 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2">
-        <v>124430</v>
+        <v>5610</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
-        <v>48520</v>
+        <v>5510</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1367,34 +1237,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>48490</v>
+        <v>410</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>46310</v>
+        <v>390</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>44720</v>
+        <v>1568</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -1403,34 +1273,34 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2">
-        <v>41130</v>
+        <v>3660</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>36560</v>
+        <v>2780</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>35050</v>
+        <v>6050</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1439,10 +1309,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C10" s="2">
-        <v>34390</v>
+        <v>3020</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -1451,22 +1321,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2">
-        <v>33140</v>
+        <v>500</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C12" s="2">
-        <v>32220</v>
+        <v>4720</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1475,10 +1345,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2">
-        <v>30930</v>
+        <v>13470</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1487,34 +1357,34 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2">
-        <v>25600</v>
+        <v>260</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2">
-        <v>25560</v>
+        <v>2340</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2">
-        <v>1263584</v>
+        <v>3090</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1523,10 +1393,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
-        <v>397122</v>
+        <v>720</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1535,34 +1405,34 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
-        <v>379458</v>
+        <v>420</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>317629</v>
+        <v>7960</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2">
-        <v>156417</v>
+        <v>11590</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -1571,10 +1441,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2">
-        <v>117492</v>
+        <v>510</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1583,22 +1453,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>88390</v>
+        <v>1080</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>62066</v>
+        <v>4558</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -1607,34 +1477,34 @@
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2">
-        <v>61732</v>
+        <v>840</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2">
-        <v>13401</v>
+        <v>1540</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2">
-        <v>12965</v>
+        <v>1460</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1643,34 +1513,34 @@
         <v>4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2">
-        <v>6848</v>
+        <v>660</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
-        <v>6234</v>
+        <v>10200</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
-        <v>6010</v>
+        <v>3064</v>
       </c>
       <c r="D29" s="1"/>
     </row>
@@ -1679,118 +1549,118 @@
         <v>4</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2">
-        <v>4326</v>
+        <v>280</v>
       </c>
       <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2">
-        <v>3764</v>
+        <v>730</v>
       </c>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2">
-        <v>518433</v>
+        <v>6490</v>
       </c>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2">
-        <v>113893</v>
+        <v>1090</v>
       </c>
       <c r="D33" s="1"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2">
-        <v>4517</v>
+        <v>1120</v>
       </c>
       <c r="D34" s="1"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2">
-        <v>309914</v>
+        <v>510</v>
       </c>
       <c r="D35" s="1"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2">
-        <v>162539</v>
+        <v>3800</v>
       </c>
       <c r="D36" s="1"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2">
-        <v>138506</v>
+        <v>6613</v>
       </c>
       <c r="D37" s="1"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2">
-        <v>97708</v>
+        <v>7280</v>
       </c>
       <c r="D38" s="1"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2">
-        <v>90983</v>
+        <v>5330</v>
       </c>
       <c r="D39" s="1"/>
     </row>
@@ -1799,2962 +1669,2604 @@
         <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C40" s="2">
-        <v>86354</v>
+        <v>1378</v>
       </c>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2">
-        <v>43288</v>
+        <v>4570</v>
       </c>
       <c r="D41" s="1"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2">
-        <v>42638</v>
+        <v>890</v>
       </c>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="C43" s="2">
-        <v>37904</v>
+        <v>4890</v>
       </c>
       <c r="D43" s="1"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C44" s="2">
-        <v>33848</v>
+        <v>7920</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2">
-        <v>28910</v>
+        <v>290</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2">
-        <v>23139</v>
+        <v>340</v>
       </c>
       <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2">
-        <v>23095</v>
+        <v>840</v>
       </c>
       <c r="D47" s="1"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="C48" s="2">
-        <v>22750</v>
+        <v>4160</v>
       </c>
       <c r="D48" s="1"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="C49" s="2">
-        <v>21236</v>
+        <v>5680</v>
       </c>
       <c r="D49" s="1"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2">
-        <v>133472</v>
+        <v>1290</v>
       </c>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2">
-        <v>25152</v>
+        <v>770</v>
       </c>
       <c r="D51" s="1"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2">
-        <v>15943</v>
+        <v>1100</v>
       </c>
       <c r="D52" s="1"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C53" s="2">
-        <v>14847</v>
+        <v>2150</v>
       </c>
       <c r="D53" s="1"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C54" s="2">
-        <v>6366</v>
+        <v>5270</v>
       </c>
       <c r="D54" s="1"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2">
-        <v>4140</v>
+        <v>5260</v>
       </c>
       <c r="D55" s="1"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>7</v>
+        <v>263</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2">
-        <v>1241</v>
+        <v>7310</v>
       </c>
       <c r="D56" s="1"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2">
-        <v>1097</v>
+        <v>1130</v>
       </c>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C58" s="2">
-        <v>749</v>
+        <v>7930</v>
       </c>
       <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2">
-        <v>372960</v>
+        <v>11560</v>
       </c>
       <c r="D59" s="1"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C60" s="2">
-        <v>304100</v>
+        <v>1690</v>
       </c>
       <c r="D60" s="1"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2">
-        <v>198520</v>
+        <v>500</v>
       </c>
       <c r="D61" s="1"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C62" s="2">
-        <v>125730</v>
+        <v>47390</v>
       </c>
       <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2">
-        <v>121410</v>
+        <v>400</v>
       </c>
       <c r="D63" s="1"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C64" s="2">
-        <v>85210</v>
+        <v>590</v>
       </c>
       <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2">
-        <v>81430</v>
+        <v>4027</v>
       </c>
       <c r="D65" s="1"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C66" s="2">
-        <v>81060</v>
+        <v>4530</v>
       </c>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C67" s="2">
-        <v>79190</v>
+        <v>750</v>
       </c>
       <c r="D67" s="1"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C68" s="2">
-        <v>77320</v>
+        <v>1170</v>
       </c>
       <c r="D68" s="1"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C69" s="2">
-        <v>75810</v>
+        <v>3890</v>
       </c>
       <c r="D69" s="1"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C70" s="2">
-        <v>73120</v>
+        <v>7340</v>
       </c>
       <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C71" s="2">
-        <v>70420</v>
+        <v>4500</v>
       </c>
       <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C72" s="2">
-        <v>66190</v>
+        <v>630</v>
       </c>
       <c r="D72" s="1"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C73" s="2">
-        <v>63800</v>
+        <v>2720</v>
       </c>
       <c r="D73" s="1"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C74" s="2">
-        <v>59710</v>
+        <v>32500</v>
       </c>
       <c r="D74" s="1"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C75" s="2">
-        <v>58380</v>
+        <v>710</v>
       </c>
       <c r="D75" s="1"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C76" s="2">
-        <v>50020</v>
+        <v>2110</v>
       </c>
       <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C77" s="2">
-        <v>45610</v>
+        <v>3190</v>
       </c>
       <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C78" s="2">
-        <v>41210</v>
+        <v>1960</v>
       </c>
       <c r="D78" s="1"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C79" s="2">
-        <v>38330</v>
+        <v>7920</v>
       </c>
       <c r="D79" s="1"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="C80" s="2">
-        <v>35820</v>
+        <v>1110</v>
       </c>
       <c r="D80" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="C81" s="2">
-        <v>34340</v>
+        <v>5110</v>
       </c>
       <c r="D81" s="1"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2">
-        <v>34110</v>
+        <v>240</v>
       </c>
       <c r="D82" s="1"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C83" s="2">
-        <v>130660</v>
+        <v>860</v>
       </c>
       <c r="D83" s="1"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="C84" s="2">
-        <v>111420</v>
+        <v>810</v>
       </c>
       <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C85" s="2">
-        <v>77380</v>
+        <v>16048</v>
       </c>
       <c r="D85" s="1"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C86" s="2">
-        <v>60710</v>
+        <v>1450</v>
       </c>
       <c r="D86" s="1"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C87" s="2">
-        <v>54190</v>
+        <v>4070</v>
       </c>
       <c r="D87" s="1"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C88" s="2">
-        <v>44380</v>
+        <v>1200</v>
       </c>
       <c r="D88" s="1"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C89" s="2">
-        <v>33040</v>
+        <v>3460</v>
       </c>
       <c r="D89" s="1"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C90" s="2">
-        <v>2460</v>
+        <v>3510</v>
       </c>
       <c r="D90" s="1"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C91" s="2">
-        <v>62740</v>
+        <v>580</v>
       </c>
       <c r="D91" s="1"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C92" s="2">
-        <v>58600</v>
+        <v>1020</v>
       </c>
       <c r="D92" s="1"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C93" s="2">
-        <v>54780</v>
+        <v>5880</v>
       </c>
       <c r="D93" s="1"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C94" s="2">
-        <v>48440</v>
+        <v>4020</v>
       </c>
       <c r="D94" s="1"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C95" s="2">
-        <v>47390</v>
+        <v>2630</v>
       </c>
       <c r="D95" s="1"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C96" s="2">
-        <v>44660</v>
+        <v>4060</v>
       </c>
       <c r="D96" s="1"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C97" s="2">
-        <v>16930</v>
+        <v>4170</v>
       </c>
       <c r="D97" s="1"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C98" s="2">
-        <v>13820</v>
+        <v>830</v>
       </c>
       <c r="D98" s="1"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C99" s="2">
-        <v>8710</v>
+        <v>5840</v>
       </c>
       <c r="D99" s="1"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C100" s="2">
-        <v>8200</v>
+        <v>2780</v>
       </c>
       <c r="D100" s="1"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C101" s="2">
-        <v>7350</v>
+        <v>9930</v>
       </c>
       <c r="D101" s="1"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C102" s="2">
-        <v>6690</v>
+        <v>3010</v>
       </c>
       <c r="D102" s="1"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C103" s="2">
-        <v>6490</v>
+        <v>5820</v>
       </c>
       <c r="D103" s="1"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C104" s="2">
-        <v>6290</v>
+        <v>470</v>
       </c>
       <c r="D104" s="1"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2">
-        <v>5260</v>
+        <v>3950</v>
       </c>
       <c r="D105" s="1"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>10</v>
+        <v>263</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C106" s="2">
-        <v>5190</v>
+        <v>5880</v>
       </c>
       <c r="D106" s="1"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C107" s="2">
-        <v>4970</v>
+        <v>4180</v>
       </c>
       <c r="D107" s="1"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2">
-        <v>4660</v>
+        <v>3460</v>
       </c>
       <c r="D108" s="1"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2">
-        <v>4630</v>
+        <v>3420</v>
       </c>
       <c r="D109" s="1"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2">
-        <v>4130</v>
+        <v>1140</v>
       </c>
       <c r="D110" s="1"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2">
-        <v>130222</v>
+        <v>2930</v>
       </c>
       <c r="D111" s="1"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2">
-        <v>19820</v>
+        <v>1540</v>
       </c>
       <c r="D112" s="1"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="C113" s="2">
-        <v>18210</v>
+        <v>1020</v>
       </c>
       <c r="D113" s="1"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2">
-        <v>17089</v>
+        <v>700</v>
       </c>
       <c r="D114" s="1"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C115" s="2">
-        <v>13563</v>
+        <v>2940</v>
       </c>
       <c r="D115" s="1"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2">
-        <v>12886</v>
+        <v>1150</v>
       </c>
       <c r="D116" s="1"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C117" s="2">
-        <v>4687</v>
+        <v>250</v>
       </c>
       <c r="D117" s="1"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2">
-        <v>896</v>
+        <v>4701</v>
       </c>
       <c r="D118" s="1"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2">
-        <v>480</v>
+        <v>4740</v>
       </c>
       <c r="D119" s="1"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C120" s="2">
-        <v>395396</v>
+        <v>1000</v>
       </c>
       <c r="D120" s="1"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C121" s="2">
-        <v>52814</v>
+        <v>700</v>
       </c>
       <c r="D121" s="1"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C122" s="2">
-        <v>31143</v>
+        <v>120</v>
       </c>
       <c r="D122" s="1"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C123" s="2">
-        <v>23487</v>
+        <v>6220</v>
       </c>
       <c r="D123" s="1"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C124" s="2">
-        <v>11596</v>
+        <v>310</v>
       </c>
       <c r="D124" s="1"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2">
-        <v>4119</v>
+        <v>370</v>
       </c>
       <c r="D125" s="1"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C126" s="2">
-        <v>68970</v>
+        <v>3300</v>
       </c>
       <c r="D126" s="1"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C127" s="2">
-        <v>58611</v>
+        <v>990</v>
       </c>
       <c r="D127" s="1"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C128" s="2">
-        <v>55164</v>
+        <v>300</v>
       </c>
       <c r="D128" s="1"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C129" s="2">
-        <v>48075</v>
+        <v>4100</v>
       </c>
       <c r="D129" s="1"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C130" s="2">
-        <v>43759</v>
+        <v>430</v>
       </c>
       <c r="D130" s="1"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C131" s="2">
-        <v>43309</v>
+        <v>1500</v>
       </c>
       <c r="D131" s="1"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2">
-        <v>26980</v>
+        <v>6030</v>
       </c>
       <c r="D132" s="1"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C133" s="2">
-        <v>26825</v>
+        <v>3070</v>
       </c>
       <c r="D133" s="1"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C134" s="2">
-        <v>22274</v>
+        <v>1200</v>
       </c>
       <c r="D134" s="1"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C135" s="2">
-        <v>17484</v>
+        <v>1140</v>
       </c>
       <c r="D135" s="1"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>13</v>
+        <v>263</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C136" s="2">
-        <v>14945</v>
+        <v>3820</v>
       </c>
       <c r="D136" s="1"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C137" s="2">
-        <v>6132</v>
+        <v>7200</v>
       </c>
       <c r="D137" s="1"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C138" s="2">
-        <v>293413</v>
+        <v>7960</v>
       </c>
       <c r="D138" s="1"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C139" s="2">
-        <v>279474</v>
+        <v>1150</v>
       </c>
       <c r="D139" s="1"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C140" s="2">
-        <v>85457</v>
+        <v>1260</v>
       </c>
       <c r="D140" s="1"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C141" s="2">
-        <v>4430</v>
+        <v>2190</v>
       </c>
       <c r="D141" s="1"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C142" s="2">
-        <v>4073</v>
+        <v>5410</v>
       </c>
       <c r="D142" s="1"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C143" s="2">
-        <v>1269</v>
+        <v>3290</v>
       </c>
       <c r="D143" s="1"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C144" s="2">
-        <v>824652</v>
+        <v>4170</v>
       </c>
       <c r="D144" s="1"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C145" s="2">
-        <v>668275</v>
+        <v>2990</v>
       </c>
       <c r="D145" s="1"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C146" s="2">
-        <v>608366</v>
+        <v>1830</v>
       </c>
       <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C147" s="2">
-        <v>313454</v>
+        <v>510</v>
       </c>
       <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C148" s="2">
-        <v>251903</v>
+        <v>8510</v>
       </c>
       <c r="D148" s="1"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C149" s="2">
-        <v>248219</v>
+        <v>4510</v>
       </c>
       <c r="D149" s="1"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C150" s="2">
-        <v>189164</v>
+        <v>980</v>
       </c>
       <c r="D150" s="1"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C151" s="2">
-        <v>180456</v>
+        <v>690</v>
       </c>
       <c r="D151" s="1"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C152" s="2">
-        <v>171251</v>
+        <v>7780</v>
       </c>
       <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C153" s="2">
-        <v>165825</v>
+        <v>5080</v>
       </c>
       <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C154" s="2">
-        <v>142905</v>
+        <v>1100</v>
       </c>
       <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C155" s="2">
-        <v>142242</v>
+        <v>430</v>
       </c>
       <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C156" s="2">
-        <v>138722</v>
+        <v>280</v>
       </c>
       <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>17</v>
+        <v>263</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C157" s="2">
-        <v>111370</v>
+        <v>790</v>
       </c>
       <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C158" s="2">
-        <v>107229</v>
+        <v>2190</v>
       </c>
       <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C159" s="2">
-        <v>105261</v>
+        <v>430</v>
       </c>
       <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C160" s="2">
-        <v>94581</v>
+        <v>6040</v>
       </c>
       <c r="D160" s="1"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C161" s="2">
-        <v>92997</v>
+        <v>4150</v>
       </c>
       <c r="D161" s="1"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C162" s="2">
-        <v>89070</v>
+        <v>750</v>
       </c>
       <c r="D162" s="1"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C163" s="2">
-        <v>75280</v>
+        <v>6520</v>
       </c>
       <c r="D163" s="1"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C164" s="2">
-        <v>72502</v>
+        <v>530</v>
       </c>
       <c r="D164" s="1"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C165" s="2">
-        <v>577210</v>
+        <v>2010</v>
       </c>
       <c r="D165" s="1"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C166" s="2">
-        <v>479976</v>
+        <v>4210</v>
       </c>
       <c r="D166" s="1"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="C167" s="2">
-        <v>287829</v>
+        <v>300</v>
       </c>
       <c r="D167" s="1"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="C168" s="2">
-        <v>108050</v>
+        <v>6310</v>
       </c>
       <c r="D168" s="1"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C169" s="2">
-        <v>3076</v>
+        <v>2470</v>
       </c>
       <c r="D169" s="1"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C170" s="2">
-        <v>3067</v>
+        <v>700</v>
       </c>
       <c r="D170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C171" s="2">
-        <v>1696</v>
+        <v>4050</v>
       </c>
       <c r="D171" s="1"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C172" s="2">
-        <v>2472041</v>
+        <v>460</v>
       </c>
       <c r="D172" s="1"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="C173" s="2">
-        <v>1504478</v>
+        <v>4640</v>
       </c>
       <c r="D173" s="1"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C174" s="2">
-        <v>1470782</v>
+        <v>470</v>
       </c>
       <c r="D174" s="1"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="C175" s="2">
-        <v>1413917</v>
+        <v>760</v>
       </c>
       <c r="D175" s="1"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="C176" s="2">
-        <v>1318014</v>
+        <v>440</v>
       </c>
       <c r="D176" s="1"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C177" s="2">
-        <v>1142062</v>
+        <v>1850</v>
       </c>
       <c r="D177" s="1"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="C178" s="2">
-        <v>1080381</v>
+        <v>6210</v>
       </c>
       <c r="D178" s="1"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="C179" s="2">
-        <v>1032401</v>
+        <v>950</v>
       </c>
       <c r="D179" s="1"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C180" s="2">
-        <v>983073</v>
+        <v>760</v>
       </c>
       <c r="D180" s="1"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C181" s="2">
-        <v>687934</v>
+        <v>1360</v>
       </c>
       <c r="D181" s="1"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="C182" s="2">
-        <v>637897</v>
+        <v>590</v>
       </c>
       <c r="D182" s="1"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C183" s="2">
-        <v>637248</v>
+        <v>660</v>
       </c>
       <c r="D183" s="1"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C184" s="2">
-        <v>628107</v>
+        <v>6430</v>
       </c>
       <c r="D184" s="1"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C185" s="2">
-        <v>518448</v>
+        <v>220</v>
       </c>
       <c r="D185" s="1"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C186" s="2">
-        <v>407679</v>
+        <v>6200</v>
       </c>
       <c r="D186" s="1"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C187" s="2">
-        <v>348998</v>
+        <v>3850</v>
       </c>
       <c r="D187" s="1"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C188" s="2">
-        <v>320125</v>
+        <v>1570</v>
       </c>
       <c r="D188" s="1"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C189" s="2">
-        <v>311140</v>
+        <v>640</v>
       </c>
       <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C190" s="2">
-        <v>95244</v>
+        <v>840</v>
       </c>
       <c r="D190" s="1"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C191" s="2">
-        <v>172672</v>
+        <v>5130</v>
       </c>
       <c r="D191" s="1"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C192" s="2">
-        <v>131631</v>
+        <v>6310</v>
       </c>
       <c r="D192" s="1"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C193" s="2">
-        <v>40142</v>
+        <v>1516</v>
       </c>
       <c r="D193" s="1"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C194" s="2">
-        <v>30226</v>
+        <v>14890</v>
       </c>
       <c r="D194" s="1"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C195" s="3">
-        <v>418790</v>
-      </c>
-      <c r="D195" s="3">
-        <v>4250</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C195" s="2">
+        <v>690</v>
+      </c>
+      <c r="D195" s="1"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C196" s="3">
-        <v>414320</v>
-      </c>
-      <c r="D196" s="3">
-        <v>4902</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C196" s="2">
+        <v>3590</v>
+      </c>
+      <c r="D196" s="1"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C197" s="3">
-        <v>381740</v>
-      </c>
-      <c r="D197" s="3">
-        <v>4902</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C197" s="2">
+        <v>400</v>
+      </c>
+      <c r="D197" s="1"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B198" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="C198" s="3">
-        <v>374760</v>
-      </c>
-      <c r="D198" s="3">
-        <v>4250</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C198" s="2">
+        <v>6200</v>
+      </c>
+      <c r="D198" s="1"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C199" s="3">
-        <v>340700</v>
-      </c>
-      <c r="D199" s="3">
-        <v>4594</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C199" s="2">
+        <v>890</v>
+      </c>
+      <c r="D199" s="1"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C200" s="3">
-        <v>315100</v>
-      </c>
-      <c r="D200" s="3">
-        <v>4604</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1620</v>
+      </c>
+      <c r="D200" s="1"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B201" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C201" s="3">
-        <v>277830</v>
-      </c>
-      <c r="D201" s="3">
-        <v>4686</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C201" s="2">
+        <v>17250</v>
+      </c>
+      <c r="D201" s="1"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C202" s="3">
-        <v>273480</v>
-      </c>
-      <c r="D202" s="3">
-        <v>4603</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C202" s="2">
+        <v>6630</v>
+      </c>
+      <c r="D202" s="1"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B203" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="C203" s="3">
-        <v>209830</v>
-      </c>
-      <c r="D203" s="3">
-        <v>4642</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C203" s="2">
+        <v>350</v>
+      </c>
+      <c r="D203" s="1"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B204" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C204" s="3">
-        <v>206360</v>
-      </c>
-      <c r="D204" s="3">
-        <v>4613</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C204" s="2">
+        <v>21160</v>
+      </c>
+      <c r="D204" s="1"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C205" s="3">
-        <v>186530</v>
-      </c>
-      <c r="D205" s="3">
-        <v>4635</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1810</v>
+      </c>
+      <c r="D205" s="1"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C206" s="2">
-        <v>614980</v>
+        <v>9710</v>
       </c>
       <c r="D206" s="1"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C207" s="2">
-        <v>402363</v>
+        <v>23870</v>
       </c>
       <c r="D207" s="1"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="C208" s="2">
-        <v>357252</v>
+        <v>170</v>
       </c>
       <c r="D208" s="1"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C209" s="2">
-        <v>162120</v>
+        <v>4560</v>
       </c>
       <c r="D209" s="1"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="C210" s="2">
-        <v>138375</v>
+        <v>9640</v>
       </c>
       <c r="D210" s="1"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="C211" s="2">
-        <v>71601</v>
+        <v>12844.64</v>
       </c>
       <c r="D211" s="1"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="C212" s="2">
-        <v>47804</v>
+        <v>1530</v>
       </c>
       <c r="D212" s="1"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="C213" s="2">
-        <v>33402</v>
+        <v>180</v>
       </c>
       <c r="D213" s="1"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="C214" s="2">
-        <v>26096</v>
+        <v>1627</v>
       </c>
       <c r="D214" s="1"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="C215" s="2">
-        <v>11488</v>
+        <v>7900</v>
       </c>
       <c r="D215" s="1"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="C216" s="2">
-        <v>11351</v>
+        <v>900</v>
       </c>
       <c r="D216" s="1"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>26</v>
+        <v>263</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C217" s="2">
-        <v>397100</v>
+        <v>2650</v>
       </c>
       <c r="D217" s="1"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="C218" s="2">
-        <v>269280</v>
+        <v>2040</v>
       </c>
       <c r="D218" s="1"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="C219" s="2">
-        <v>56042</v>
+        <v>3970</v>
       </c>
       <c r="D219" s="1"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="C220" s="2">
-        <v>42194</v>
+        <v>650</v>
       </c>
       <c r="D220" s="1"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="C221" s="2">
-        <v>23940</v>
+        <v>280</v>
       </c>
       <c r="D221" s="1"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C222" s="2">
-        <v>42265</v>
+        <v>1280</v>
       </c>
       <c r="D222" s="1"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="C223" s="2">
-        <v>34666</v>
+        <v>11150</v>
       </c>
       <c r="D223" s="1"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C224" s="2">
-        <v>33765</v>
+        <v>1520</v>
       </c>
       <c r="D224" s="1"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="C225" s="2">
-        <v>30464</v>
+        <v>5870</v>
       </c>
       <c r="D225" s="1"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="C226" s="2">
-        <v>29228</v>
+        <v>440</v>
       </c>
       <c r="D226" s="1"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C227" s="2">
-        <v>29214</v>
+        <v>1490</v>
       </c>
       <c r="D227" s="1"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="C228" s="2">
-        <v>27974</v>
+        <v>290</v>
       </c>
       <c r="D228" s="1"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C229" s="2">
-        <v>27732</v>
+        <v>2340</v>
       </c>
       <c r="D229" s="1"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="C230" s="2">
-        <v>26230</v>
+        <v>9420</v>
       </c>
       <c r="D230" s="1"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C231" s="2">
-        <v>24287</v>
+        <v>4050</v>
       </c>
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C232" s="2">
-        <v>445251</v>
+        <v>1140</v>
       </c>
       <c r="D232" s="1"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C233" s="2">
-        <v>221224</v>
+        <v>5200</v>
       </c>
       <c r="D233" s="1"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C234" s="2">
-        <v>213801</v>
+        <v>1700</v>
       </c>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="C235" s="2">
-        <v>199901</v>
+        <v>1130</v>
       </c>
       <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C236" s="2">
-        <v>160571</v>
+        <v>590</v>
       </c>
       <c r="D236" s="1"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C237" s="2">
-        <v>151762</v>
+        <v>4030</v>
       </c>
       <c r="D237" s="1"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C238" s="2">
-        <v>126495</v>
+        <v>3030</v>
       </c>
       <c r="D238" s="1"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="C239" s="2">
-        <v>111923</v>
+        <v>6060</v>
       </c>
       <c r="D239" s="1"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="C240" s="2">
-        <v>50530</v>
+        <v>4470</v>
       </c>
       <c r="D240" s="1"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="C241" s="2">
-        <v>18278</v>
+        <v>1770</v>
       </c>
       <c r="D241" s="1"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>30</v>
+        <v>263</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="C242" s="2">
-        <v>1030710</v>
+        <v>1660</v>
       </c>
       <c r="D242" s="1"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C243" s="2">
-        <v>125160</v>
+        <v>2800</v>
       </c>
       <c r="D243" s="1"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C244" s="2">
-        <v>99090</v>
+        <v>1500</v>
       </c>
       <c r="D244" s="1"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="C245" s="2">
-        <v>70880</v>
+        <v>10820</v>
       </c>
       <c r="D245" s="1"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="C246" s="2">
-        <v>68910</v>
+        <v>1080</v>
       </c>
       <c r="D246" s="1"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="C247" s="2">
-        <v>63600</v>
+        <v>200</v>
       </c>
       <c r="D247" s="1"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C248" s="2">
-        <v>60030</v>
+        <v>410</v>
       </c>
       <c r="D248" s="1"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C249" s="2">
-        <v>57340</v>
+        <v>4800</v>
       </c>
       <c r="D249" s="1"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="C250" s="2">
-        <v>52480</v>
+        <v>150</v>
       </c>
       <c r="D250" s="1"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="C251" s="2">
-        <v>50270</v>
+        <v>320</v>
       </c>
       <c r="D251" s="1"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="C252" s="2">
-        <v>47810</v>
+        <v>330</v>
       </c>
       <c r="D252" s="1"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="C253" s="2">
-        <v>45940</v>
+        <v>3090</v>
       </c>
       <c r="D253" s="1"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="C254" s="2">
-        <v>42430</v>
+        <v>700</v>
       </c>
       <c r="D254" s="1"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="C255" s="2">
-        <v>42140</v>
+        <v>3500</v>
       </c>
       <c r="D255" s="1"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C256" s="2">
-        <v>41220</v>
+        <v>1450</v>
       </c>
       <c r="D256" s="1"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B257" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C257" s="2">
-        <v>39960</v>
-      </c>
-      <c r="D257" s="1"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C258" s="2">
-        <v>34500</v>
-      </c>
-      <c r="D258" s="1"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C259" s="2">
-        <v>29490</v>
-      </c>
-      <c r="D259" s="1"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C260" s="2">
-        <v>24340</v>
-      </c>
-      <c r="D260" s="1"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C261" s="2">
-        <v>18800</v>
-      </c>
-      <c r="D261" s="1"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C262" s="2">
-        <v>17370</v>
-      </c>
-      <c r="D262" s="1"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C263" s="2">
-        <v>33480</v>
-      </c>
-      <c r="D263" s="1"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C264" s="2">
-        <v>7920</v>
-      </c>
-      <c r="D264" s="1"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C265" s="2">
-        <v>4300</v>
-      </c>
-      <c r="D265" s="1"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B266" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C266" s="2">
-        <v>3390</v>
-      </c>
-      <c r="D266" s="1"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C267" s="2">
-        <v>1850</v>
-      </c>
-      <c r="D267" s="1"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B268" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C268" s="2">
-        <v>130585</v>
-      </c>
-      <c r="D268" s="1"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B269" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C269" s="2">
-        <v>105014</v>
-      </c>
-      <c r="D269" s="1"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B270" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C270" s="2">
-        <v>97395</v>
-      </c>
-      <c r="D270" s="1"/>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B271" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C271" s="2">
-        <v>44217</v>
-      </c>
-      <c r="D271" s="1"/>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C272" s="2">
-        <v>311627</v>
-      </c>
-      <c r="D272" s="1"/>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B273" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C273" s="2">
-        <v>160144</v>
-      </c>
-      <c r="D273" s="1"/>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B274" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C274" s="2">
-        <v>104947</v>
-      </c>
-      <c r="D274" s="1"/>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B275" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C275" s="2">
-        <v>16001</v>
-      </c>
-      <c r="D275" s="1"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C276" s="2">
-        <v>14364</v>
-      </c>
-      <c r="D276" s="1"/>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B277" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C277" s="2">
-        <v>8508</v>
-      </c>
-      <c r="D277" s="1"/>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B278" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C278" s="2">
-        <v>6996</v>
-      </c>
-      <c r="D278" s="1"/>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B279" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C279" s="2">
-        <v>6906</v>
-      </c>
-      <c r="D279" s="1"/>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B280" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C280" s="2">
-        <v>3022</v>
-      </c>
-      <c r="D280" s="1"/>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B281" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C281" s="2">
-        <v>124220</v>
-      </c>
-      <c r="D281" s="1"/>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B282" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C282" s="2">
-        <v>46850</v>
-      </c>
-      <c r="D282" s="1"/>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B283" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C283" s="2">
-        <v>29968</v>
-      </c>
-      <c r="D283" s="1"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C284" s="2">
-        <v>26764</v>
-      </c>
-      <c r="D284" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Python_Projects_And_Repos\Billscrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0AB06B-AA19-481B-9973-13AFE9C6C773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF5BE3-F110-4A6D-905A-2026B9A5185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -126,13 +126,6 @@
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,7 +450,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,185 +472,185 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>1251000</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>76150</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>60840</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>56280</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>50290</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>68910</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>63600</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>52480</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>50270</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>45940</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>7920</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>4300</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>3390</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>1850</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>33480</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Python_Projects_And_Repos\Billscrape\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF5BE3-F110-4A6D-905A-2026B9A5185A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="274">
   <si>
     <t>Provider</t>
   </si>
@@ -34,12 +28,690 @@
     <t>BU</t>
   </si>
   <si>
+    <t>Adani Electricity</t>
+  </si>
+  <si>
+    <t>Ajmer Vidyut Vitran Nigam</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>APEPDCL</t>
+  </si>
+  <si>
+    <t>BESCOM</t>
+  </si>
+  <si>
+    <t>BkESL</t>
+  </si>
+  <si>
+    <t>bses rajdhani pow</t>
+  </si>
+  <si>
+    <t>bses yamuna pow</t>
+  </si>
+  <si>
+    <t>CESC</t>
+  </si>
+  <si>
+    <t>CESCOM</t>
+  </si>
+  <si>
+    <t>chandi</t>
+  </si>
+  <si>
+    <t>Dakshin Gujarat Vij Company Limited (DGVCL)</t>
+  </si>
+  <si>
+    <t>Dakshin Haryana Bijli Vitran Nigam (DHBVN)</t>
+  </si>
+  <si>
+    <t>DGVCL</t>
+  </si>
+  <si>
+    <t>Goa Electricity Department</t>
+  </si>
+  <si>
+    <t>HESCOM</t>
+  </si>
+  <si>
+    <t>Jaipur Vidyut Vitran Nigam</t>
+  </si>
+  <si>
+    <t>Jodhpur Vidyut Vitran Nigam</t>
+  </si>
+  <si>
+    <t>Kota Electricity Distribution</t>
+  </si>
+  <si>
+    <t>KSEBL</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>MGVCL</t>
+  </si>
+  <si>
+    <t>mahara</t>
+  </si>
+  <si>
+    <t>MVVNL</t>
+  </si>
+  <si>
+    <t>paschim gujarat</t>
+  </si>
+  <si>
+    <t>paschim kshe</t>
+  </si>
+  <si>
+    <t>PSPCL</t>
+  </si>
+  <si>
+    <t>PVVNL</t>
+  </si>
+  <si>
+    <t>tata power - mumbai</t>
+  </si>
+  <si>
+    <t>Telangana State Southern Power Distribution Company Ltd</t>
+  </si>
+  <si>
+    <t>TNEB</t>
+  </si>
+  <si>
     <t>Torrent Power AHMEDABAD</t>
   </si>
   <si>
     <t>Torrent Power SURAT</t>
   </si>
   <si>
+    <t>tp central</t>
+  </si>
+  <si>
+    <t>TP Western Odisha Distribution Limited</t>
+  </si>
+  <si>
+    <t>UGVCL</t>
+  </si>
+  <si>
+    <t>UHBVN</t>
+  </si>
+  <si>
+    <t>UPCL</t>
+  </si>
+  <si>
+    <t>Uttar Haryana Bijli Vitran Nigam (UHBVN)</t>
+  </si>
+  <si>
+    <t>uttarakhand</t>
+  </si>
+  <si>
+    <t>west bengal state</t>
+  </si>
+  <si>
+    <t>152519035</t>
+  </si>
+  <si>
+    <t>152192696</t>
+  </si>
+  <si>
+    <t>152189315</t>
+  </si>
+  <si>
+    <t>153398996</t>
+  </si>
+  <si>
+    <t>152982082</t>
+  </si>
+  <si>
+    <t>152969529</t>
+  </si>
+  <si>
+    <t>152731494</t>
+  </si>
+  <si>
+    <t>152731492</t>
+  </si>
+  <si>
+    <t>120134041344</t>
+  </si>
+  <si>
+    <t>120222047314</t>
+  </si>
+  <si>
+    <t>130121032882</t>
+  </si>
+  <si>
+    <t>120136025442</t>
+  </si>
+  <si>
+    <t>120136030590</t>
+  </si>
+  <si>
+    <t>120133030061</t>
+  </si>
+  <si>
+    <t>110213030264</t>
+  </si>
+  <si>
+    <t>110213020955</t>
+  </si>
+  <si>
+    <t>110213020954</t>
+  </si>
+  <si>
+    <t>120142043312</t>
+  </si>
+  <si>
+    <t>120136030570</t>
+  </si>
+  <si>
+    <t>006000003454</t>
+  </si>
+  <si>
+    <t>017000003487</t>
+  </si>
+  <si>
+    <t>210010060164</t>
+  </si>
+  <si>
+    <t>112311D031080813</t>
+  </si>
+  <si>
+    <t>6317969378</t>
+  </si>
+  <si>
+    <t>4463026452</t>
+  </si>
+  <si>
+    <t>8590710294</t>
+  </si>
+  <si>
+    <t>5727702741</t>
+  </si>
+  <si>
+    <t>8030287400</t>
+  </si>
+  <si>
+    <t>0663784210</t>
+  </si>
+  <si>
+    <t>4716092000</t>
+  </si>
+  <si>
+    <t>0906335691</t>
+  </si>
+  <si>
+    <t>4931556871</t>
+  </si>
+  <si>
+    <t>310161025387</t>
+  </si>
+  <si>
+    <t>310161024748</t>
+  </si>
+  <si>
+    <t>150019118</t>
+  </si>
+  <si>
+    <t>100144687</t>
+  </si>
+  <si>
+    <t>152483019</t>
+  </si>
+  <si>
+    <t>153267601</t>
+  </si>
+  <si>
+    <t>153267595</t>
+  </si>
+  <si>
+    <t>154011282</t>
+  </si>
+  <si>
+    <t>154426309</t>
+  </si>
+  <si>
+    <t>154397528</t>
+  </si>
+  <si>
+    <t>154397530</t>
+  </si>
+  <si>
+    <t>154397527</t>
+  </si>
+  <si>
+    <t>154169184</t>
+  </si>
+  <si>
+    <t>154161035</t>
+  </si>
+  <si>
+    <t>153948363</t>
+  </si>
+  <si>
+    <t>153948354</t>
+  </si>
+  <si>
+    <t>153948356</t>
+  </si>
+  <si>
+    <t>153974957</t>
+  </si>
+  <si>
+    <t>153948366</t>
+  </si>
+  <si>
+    <t>153932234</t>
+  </si>
+  <si>
+    <t>18000190976</t>
+  </si>
+  <si>
+    <t>18000190958</t>
+  </si>
+  <si>
+    <t>18000190949</t>
+  </si>
+  <si>
+    <t>18000190967</t>
+  </si>
+  <si>
+    <t>18000190931</t>
+  </si>
+  <si>
+    <t>85000042713</t>
+  </si>
+  <si>
+    <t>9022302880</t>
+  </si>
+  <si>
+    <t>4122528893</t>
+  </si>
+  <si>
+    <t>3607358832</t>
+  </si>
+  <si>
+    <t>3443204851</t>
+  </si>
+  <si>
+    <t>1479593851</t>
+  </si>
+  <si>
+    <t>8747864808</t>
+  </si>
+  <si>
+    <t>1091092305</t>
+  </si>
+  <si>
+    <t>2273182099</t>
+  </si>
+  <si>
+    <t>2432244788</t>
+  </si>
+  <si>
+    <t>3441036009W</t>
+  </si>
+  <si>
+    <t>3441036008U</t>
+  </si>
+  <si>
+    <t>3441036013Q</t>
+  </si>
+  <si>
+    <t>3441036006R</t>
+  </si>
+  <si>
+    <t>3441036014R</t>
+  </si>
+  <si>
+    <t>IA94080800H</t>
+  </si>
+  <si>
+    <t>3441036010H</t>
+  </si>
+  <si>
+    <t>13010282010</t>
+  </si>
+  <si>
+    <t>13010280475</t>
+  </si>
+  <si>
+    <t>18307205786</t>
+  </si>
+  <si>
+    <t>13010280980</t>
+  </si>
+  <si>
+    <t>15009058863</t>
+  </si>
+  <si>
+    <t>13010281021</t>
+  </si>
+  <si>
+    <t>13010280998</t>
+  </si>
+  <si>
+    <t>42524236846</t>
+  </si>
+  <si>
+    <t>9786070297</t>
+  </si>
+  <si>
+    <t>7633597005</t>
+  </si>
+  <si>
+    <t>6572075018</t>
+  </si>
+  <si>
+    <t>6421001000</t>
+  </si>
+  <si>
+    <t>18307201985</t>
+  </si>
+  <si>
+    <t>18307202000</t>
+  </si>
+  <si>
+    <t>18307201993</t>
+  </si>
+  <si>
+    <t>18307202035</t>
+  </si>
+  <si>
+    <t>18307202027</t>
+  </si>
+  <si>
+    <t>18307201950</t>
+  </si>
+  <si>
+    <t>18307201977</t>
+  </si>
+  <si>
+    <t>18307202043</t>
+  </si>
+  <si>
+    <t>60002146128</t>
+  </si>
+  <si>
+    <t>2237478583</t>
+  </si>
+  <si>
+    <t>4677263233</t>
+  </si>
+  <si>
+    <t>211462053628</t>
+  </si>
+  <si>
+    <t>210114052125</t>
+  </si>
+  <si>
+    <t>211421036624</t>
+  </si>
+  <si>
+    <t>211421043843</t>
+  </si>
+  <si>
+    <t>211423018408</t>
+  </si>
+  <si>
+    <t>211424026529</t>
+  </si>
+  <si>
+    <t>211443034022</t>
+  </si>
+  <si>
+    <t>211424030640</t>
+  </si>
+  <si>
+    <t>211421042161</t>
+  </si>
+  <si>
+    <t>210414036293</t>
+  </si>
+  <si>
+    <t>320244022148</t>
+  </si>
+  <si>
+    <t>320232026403</t>
+  </si>
+  <si>
+    <t>320212022799</t>
+  </si>
+  <si>
+    <t>210722020213</t>
+  </si>
+  <si>
+    <t>210736016276</t>
+  </si>
+  <si>
+    <t>210721026295</t>
+  </si>
+  <si>
+    <t>210722010764</t>
+  </si>
+  <si>
+    <t>210722024719</t>
+  </si>
+  <si>
+    <t>210727000074</t>
+  </si>
+  <si>
+    <t>210727016523</t>
+  </si>
+  <si>
+    <t>210721027979</t>
+  </si>
+  <si>
+    <t>210722019167</t>
+  </si>
+  <si>
+    <t>210722018509</t>
+  </si>
+  <si>
+    <t>1155434036539</t>
+  </si>
+  <si>
+    <t>N2211017221</t>
+  </si>
+  <si>
+    <t>N2211004048</t>
+  </si>
+  <si>
+    <t>N2502024841</t>
+  </si>
+  <si>
+    <t>N2468016321</t>
+  </si>
+  <si>
+    <t>15632046745</t>
+  </si>
+  <si>
+    <t>15518243464</t>
+  </si>
+  <si>
+    <t>15518243456</t>
+  </si>
+  <si>
+    <t>14106136880</t>
+  </si>
+  <si>
+    <t>15509000040</t>
+  </si>
+  <si>
+    <t>15518243448</t>
+  </si>
+  <si>
+    <t>15518243430</t>
+  </si>
+  <si>
+    <t>15501001063</t>
+  </si>
+  <si>
+    <t>15518243472</t>
+  </si>
+  <si>
+    <t>15632046362</t>
+  </si>
+  <si>
+    <t>15501001055</t>
+  </si>
+  <si>
+    <t>15529066453</t>
+  </si>
+  <si>
+    <t>410013884459</t>
+  </si>
+  <si>
+    <t>610550451312</t>
+  </si>
+  <si>
+    <t>410023595684</t>
+  </si>
+  <si>
+    <t>417260006655</t>
+  </si>
+  <si>
+    <t>410023003621</t>
+  </si>
+  <si>
+    <t>419990013382</t>
+  </si>
+  <si>
+    <t>610557697031</t>
+  </si>
+  <si>
+    <t>000339033090</t>
+  </si>
+  <si>
+    <t>028512713264</t>
+  </si>
+  <si>
+    <t>000014396586</t>
+  </si>
+  <si>
+    <t>000011676804</t>
+  </si>
+  <si>
+    <t>2917937203</t>
+  </si>
+  <si>
+    <t>2529769470</t>
+  </si>
+  <si>
+    <t>2956490000</t>
+  </si>
+  <si>
+    <t>29714</t>
+  </si>
+  <si>
+    <t>N3973005890</t>
+  </si>
+  <si>
+    <t>N3973015247</t>
+  </si>
+  <si>
+    <t>N3378030243</t>
+  </si>
+  <si>
+    <t>N3001030182</t>
+  </si>
+  <si>
+    <t>N3001030189</t>
+  </si>
+  <si>
+    <t>N3372046363</t>
+  </si>
+  <si>
+    <t>N3684023770</t>
+  </si>
+  <si>
+    <t>N3471039746</t>
+  </si>
+  <si>
+    <t>N3373008085</t>
+  </si>
+  <si>
+    <t>3003007258</t>
+  </si>
+  <si>
+    <t>3008306068</t>
+  </si>
+  <si>
+    <t>3005103394</t>
+  </si>
+  <si>
+    <t>3008091568</t>
+  </si>
+  <si>
+    <t>3008090996</t>
+  </si>
+  <si>
+    <t>2661342323</t>
+  </si>
+  <si>
+    <t>9671829265</t>
+  </si>
+  <si>
+    <t>0120873820</t>
+  </si>
+  <si>
+    <t>900001214234</t>
+  </si>
+  <si>
+    <t>900001214175</t>
+  </si>
+  <si>
+    <t>900001214180</t>
+  </si>
+  <si>
+    <t>900001214178</t>
+  </si>
+  <si>
+    <t>900000039464</t>
+  </si>
+  <si>
+    <t>900000039480</t>
+  </si>
+  <si>
+    <t>101086636</t>
+  </si>
+  <si>
+    <t>050050031765</t>
+  </si>
+  <si>
+    <t>092370221654</t>
+  </si>
+  <si>
+    <t>092452434573</t>
+  </si>
+  <si>
+    <t>092630043737</t>
+  </si>
+  <si>
+    <t>011490292228</t>
+  </si>
+  <si>
+    <t>09251501768</t>
+  </si>
+  <si>
+    <t>094410045434</t>
+  </si>
+  <si>
+    <t>093270022948</t>
+  </si>
+  <si>
+    <t>093270022949</t>
+  </si>
+  <si>
+    <t>093270022779</t>
+  </si>
+  <si>
+    <t>09168015256</t>
+  </si>
+  <si>
     <t>100613410</t>
   </si>
   <si>
@@ -83,13 +755,97 @@
   </si>
   <si>
     <t>501135487</t>
+  </si>
+  <si>
+    <t>80034100406</t>
+  </si>
+  <si>
+    <t>811422200262</t>
+  </si>
+  <si>
+    <t>74801148808</t>
+  </si>
+  <si>
+    <t>73049309059</t>
+  </si>
+  <si>
+    <t>71930238185</t>
+  </si>
+  <si>
+    <t>73049293349</t>
+  </si>
+  <si>
+    <t>0374623514</t>
+  </si>
+  <si>
+    <t>2906549045</t>
+  </si>
+  <si>
+    <t>40106964140</t>
+  </si>
+  <si>
+    <t>40106962555</t>
+  </si>
+  <si>
+    <t>40106962199</t>
+  </si>
+  <si>
+    <t>40106964434</t>
+  </si>
+  <si>
+    <t>40106964671</t>
+  </si>
+  <si>
+    <t>40106965058</t>
+  </si>
+  <si>
+    <t>40106965090</t>
+  </si>
+  <si>
+    <t>5784160000</t>
+  </si>
+  <si>
+    <t>42200438315</t>
+  </si>
+  <si>
+    <t>42100178588</t>
+  </si>
+  <si>
+    <t>42200773416</t>
+  </si>
+  <si>
+    <t>42200441855</t>
+  </si>
+  <si>
+    <t>402783423</t>
+  </si>
+  <si>
+    <t>402783418</t>
+  </si>
+  <si>
+    <t>402783420</t>
+  </si>
+  <si>
+    <t>106218991</t>
+  </si>
+  <si>
+    <t>1062053333</t>
+  </si>
+  <si>
+    <t>106205512</t>
+  </si>
+  <si>
+    <t>106207218</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,47 +879,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf/>
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:D43" totalsRowShown="0">
-  <autoFilter ref="A1:D43" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D230" totalsRowShown="0">
+  <autoFilter ref="A1:D230"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Provider"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mobile"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="₹ Amt." dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="BU"/>
+    <tableColumn id="1" name="Provider" dataDxfId="0"/>
+    <tableColumn id="2" name="Mobile" dataDxfId="0"/>
+    <tableColumn id="3" name="₹ Amt." dataDxfId="1"/>
+    <tableColumn id="4" name="BU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +950,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -235,7 +984,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,10 +1018,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,19 +1193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,347 +1214,2753 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
-        <v>1251000</v>
+        <v>99960</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
-        <v>76150</v>
+        <v>43330</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
-        <v>60840</v>
+        <v>12840</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
-        <v>56280</v>
+        <v>8080</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
-        <v>50290</v>
+        <v>48520</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
-        <v>68910</v>
+        <v>34390</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
-        <v>63600</v>
+        <v>9570</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2">
-        <v>52480</v>
+        <v>8170</v>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
-        <v>50270</v>
+        <v>379458</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2">
-        <v>45940</v>
+        <v>397122</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2">
-        <v>7920</v>
+        <v>317629</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2">
-        <v>4300</v>
+        <v>1263584</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2">
-        <v>3390</v>
+        <v>156417</v>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C15" s="2">
-        <v>1850</v>
+        <v>117492</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2">
+        <v>88390</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2">
+        <v>62066</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2">
+        <v>61732</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2">
+        <v>225516</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6306</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2">
+        <v>518433</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4517</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2">
+        <v>113893</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2449</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15870</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2">
+        <v>13576</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2">
+        <v>13569</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8820</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4946</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4887</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43288</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2">
+        <v>162539</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2">
+        <v>97708</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2">
+        <v>133472</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2">
+        <v>14847</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2">
+        <v>17820</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>164140</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2">
+        <v>153640</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2">
+        <v>140150</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2">
+        <v>136060</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2">
+        <v>108380</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2">
+        <v>106670</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2">
+        <v>98580</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2">
+        <v>97830</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2">
+        <v>87410</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2">
+        <v>136740</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2">
+        <v>135760</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="2">
+        <v>73170</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2">
+        <v>68240</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="2">
+        <v>66570</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2">
+        <v>47250</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42300</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2210</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="2">
+        <v>54530</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="2">
+        <v>49180</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="2">
+        <v>47880</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="2">
+        <v>47510</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43880</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="2">
+        <v>62740</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="2">
+        <v>130222</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="2">
+        <v>19820</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="2">
+        <v>18210</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="2">
+        <v>17089</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="2">
+        <v>13563</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="2">
+        <v>12886</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4687</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="2">
+        <v>896</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="2">
+        <v>480</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="2">
+        <v>52814</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="2">
+        <v>31143</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="2">
+        <v>23487</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="2">
+        <v>11596</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4119</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="2">
+        <v>395396</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="2">
+        <v>8485</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="2">
+        <v>68467</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2">
+        <v>66801</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="2">
+        <v>29603</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="2">
+        <v>7494</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1658</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="2">
+        <v>24</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="2">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="2">
+        <v>48075</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="2">
+        <v>316294</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="2">
+        <v>323932</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="2">
+        <v>133698</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="2">
+        <v>85457</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="2">
+        <v>68970</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="2">
+        <v>58611</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="2">
+        <v>55164</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43759</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43309</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="2">
+        <v>26980</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="2">
+        <v>26825</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2">
+        <v>22274</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4430</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="2">
+        <v>4073</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1269</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2">
+      <c r="B99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="2">
+        <v>14041</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="2">
+        <v>180456</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="2">
+        <v>608366</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3358</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="2">
+        <v>824652</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="2">
+        <v>668275</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="2">
+        <v>313454</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="2">
+        <v>248219</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="2">
+        <v>189164</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="2">
+        <v>171251</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="2">
+        <v>479976</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="2">
+        <v>577210</v>
+      </c>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="2">
+        <v>108050</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2256695</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1867855</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1542632</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="2">
+        <v>978760</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="2">
+        <v>614602</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="2">
+        <v>583631</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" s="2">
+        <v>387790</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="2">
+        <v>359625</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="2">
+        <v>350336</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="2">
+        <v>233878</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="2">
+        <v>151849</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="2">
+        <v>131631</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="2">
+        <v>40142</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="2">
+        <v>30226</v>
+      </c>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="2">
+        <v>172672</v>
+      </c>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="2">
+        <v>85262</v>
+      </c>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="2">
+        <v>82152</v>
+      </c>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="2">
+        <v>81176</v>
+      </c>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="2">
+        <v>75844</v>
+      </c>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="2">
+        <v>62041</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="2">
+        <v>52838</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="2">
+        <v>47183</v>
+      </c>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="2">
+        <v>39700</v>
+      </c>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="2">
+        <v>13336</v>
+      </c>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" s="2">
+        <v>36491</v>
+      </c>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="2">
+        <v>15076</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="2">
+        <v>283860</v>
+      </c>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="2">
+        <v>125510</v>
+      </c>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="2">
+        <v>118550</v>
+      </c>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" s="2">
+        <v>116960</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" s="2">
+        <v>36520</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="2">
+        <v>14590</v>
+      </c>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2170</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" s="2">
+        <v>209830</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="2">
+        <v>102610</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44440</v>
+      </c>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" s="2">
+        <v>38440</v>
+      </c>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150" s="2">
+        <v>614980</v>
+      </c>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C151" s="2">
+        <v>402363</v>
+      </c>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3403</v>
+      </c>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" s="2">
+        <v>357252</v>
+      </c>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" s="2">
+        <v>72143</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="2">
+        <v>57221</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45963</v>
+      </c>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="2">
+        <v>162120</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="2">
+        <v>47804</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="2">
+        <v>11488</v>
+      </c>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="2">
+        <v>33402</v>
+      </c>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="2">
+        <v>71601</v>
+      </c>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44324</v>
+      </c>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="2">
+        <v>397100</v>
+      </c>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" s="2">
+        <v>269280</v>
+      </c>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="2">
+        <v>517810</v>
+      </c>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C166" s="2">
+        <v>15010</v>
+      </c>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="2">
+        <v>8620</v>
+      </c>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C168" s="2">
+        <v>56042</v>
+      </c>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="2">
+        <v>42194</v>
+      </c>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" s="2">
+        <v>23940</v>
+      </c>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" s="2">
+        <v>34666</v>
+      </c>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C172" s="2">
+        <v>27974</v>
+      </c>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173" s="2">
+        <v>27732</v>
+      </c>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" s="2">
+        <v>26230</v>
+      </c>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" s="2">
+        <v>29228</v>
+      </c>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" s="2">
+        <v>33765</v>
+      </c>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1869</v>
+      </c>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C178" s="2">
+        <v>213801</v>
+      </c>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" s="2">
+        <v>445251</v>
+      </c>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="2">
+        <v>221224</v>
+      </c>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C181" s="2">
+        <v>199901</v>
+      </c>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="2">
+        <v>160571</v>
+      </c>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C183" s="2">
+        <v>151762</v>
+      </c>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C184" s="2">
+        <v>126495</v>
+      </c>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185" s="2">
+        <v>111923</v>
+      </c>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C186" s="2">
+        <v>50530</v>
+      </c>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C187" s="2">
+        <v>18278</v>
+      </c>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C188" s="2">
+        <v>90941</v>
+      </c>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1251000</v>
+      </c>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190" s="2">
+        <v>76150</v>
+      </c>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191" s="2">
+        <v>60840</v>
+      </c>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" s="2">
+        <v>56280</v>
+      </c>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" s="2">
+        <v>50290</v>
+      </c>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194" s="2">
+        <v>68910</v>
+      </c>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C195" s="2">
+        <v>63600</v>
+      </c>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C196" s="2">
+        <v>52480</v>
+      </c>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" s="2">
+        <v>50270</v>
+      </c>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C199" s="2">
+        <v>7920</v>
+      </c>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200" s="2">
+        <v>4300</v>
+      </c>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C201" s="2">
+        <v>3390</v>
+      </c>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C202" s="2">
+        <v>1850</v>
+      </c>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C203" s="2">
         <v>33480</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="1"/>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C204" s="2">
+        <v>130585</v>
+      </c>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1756</v>
+      </c>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206" s="2">
+        <v>105014</v>
+      </c>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C207" s="2">
+        <v>97395</v>
+      </c>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C208" s="2">
+        <v>44217</v>
+      </c>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4623</v>
+      </c>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C210" s="2">
+        <v>160144</v>
+      </c>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211" s="2">
+        <v>104947</v>
+      </c>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212" s="2">
+        <v>16001</v>
+      </c>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C213" s="2">
+        <v>14364</v>
+      </c>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" s="2">
+        <v>8508</v>
+      </c>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C215" s="2">
+        <v>6996</v>
+      </c>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C216" s="2">
+        <v>6906</v>
+      </c>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C217" s="2">
+        <v>3022</v>
+      </c>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218" s="2">
+        <v>3185</v>
+      </c>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" s="2">
+        <v>311627</v>
+      </c>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220" s="2">
+        <v>124220</v>
+      </c>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221" s="2">
+        <v>46850</v>
+      </c>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C222" s="2">
+        <v>29968</v>
+      </c>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C223" s="2">
+        <v>26764</v>
+      </c>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C224" s="2">
+        <v>141697</v>
+      </c>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C225" s="2">
+        <v>110073</v>
+      </c>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C226" s="2">
+        <v>101323</v>
+      </c>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C227" s="2">
+        <v>85192</v>
+      </c>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C228" s="2">
+        <v>66935</v>
+      </c>
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C229" s="2">
+        <v>57705</v>
+      </c>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C230" s="2">
+        <v>57630</v>
+      </c>
+      <c r="D230" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Python_Projects_And_Repos\Billscrape\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15828D0-5292-4BBB-AF49-583196C502EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="274">
   <si>
     <t>Provider</t>
   </si>
@@ -34,7 +28,793 @@
     <t>BU</t>
   </si>
   <si>
+    <t>Adani Electricity</t>
+  </si>
+  <si>
+    <t>Ajmer Vidyut Vitran Nigam</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>APEPDCL</t>
+  </si>
+  <si>
+    <t>BESCOM</t>
+  </si>
+  <si>
+    <t>BkESL</t>
+  </si>
+  <si>
+    <t>bses rajdhani pow</t>
+  </si>
+  <si>
+    <t>bses yamuna pow</t>
+  </si>
+  <si>
+    <t>CESC</t>
+  </si>
+  <si>
+    <t>CESCOM</t>
+  </si>
+  <si>
+    <t>chandi</t>
+  </si>
+  <si>
+    <t>Dakshin Gujarat Vij Company Limited (dakshin har)</t>
+  </si>
+  <si>
+    <t>Dakshin Haryana Bijli Vitran Nigam (DHBVN)</t>
+  </si>
+  <si>
+    <t>dakshin har</t>
+  </si>
+  <si>
+    <t>Goa Electricity Department</t>
+  </si>
+  <si>
+    <t>HESCOM</t>
+  </si>
+  <si>
+    <t>Jaipur Vidyut Vitran Nigam</t>
+  </si>
+  <si>
+    <t>Jodhpur Vidyut Vitran Nigam</t>
+  </si>
+  <si>
+    <t>Kota Electricity Distribution</t>
+  </si>
+  <si>
+    <t>KSEBL</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>MGVCL</t>
+  </si>
+  <si>
+    <t>mahara</t>
+  </si>
+  <si>
+    <t>MVVNL</t>
+  </si>
+  <si>
+    <t>paschim gujarat</t>
+  </si>
+  <si>
+    <t>paschim kshe</t>
+  </si>
+  <si>
+    <t>PSPCL</t>
+  </si>
+  <si>
+    <t>PVVNL</t>
+  </si>
+  <si>
+    <t>tata power - mumbai</t>
+  </si>
+  <si>
+    <t>Telangana State Southern Power Distribution Company Ltd</t>
+  </si>
+  <si>
+    <t>TNEB</t>
+  </si>
+  <si>
+    <t>Torrent Power AHMEDABAD</t>
+  </si>
+  <si>
+    <t>Torrent Power SURAT</t>
+  </si>
+  <si>
+    <t>tp central</t>
+  </si>
+  <si>
+    <t>TP Western Odisha Distribution Limited</t>
+  </si>
+  <si>
+    <t>UGVCL</t>
+  </si>
+  <si>
+    <t>UHBVN</t>
+  </si>
+  <si>
+    <t>UPCL</t>
+  </si>
+  <si>
+    <t>Uttar Haryana Bijli Vitran Nigam (UHBVN)</t>
+  </si>
+  <si>
+    <t>uttarakhand</t>
+  </si>
+  <si>
     <t>west bengal state</t>
+  </si>
+  <si>
+    <t>152519035</t>
+  </si>
+  <si>
+    <t>152192696</t>
+  </si>
+  <si>
+    <t>152189315</t>
+  </si>
+  <si>
+    <t>153398996</t>
+  </si>
+  <si>
+    <t>152982082</t>
+  </si>
+  <si>
+    <t>152969529</t>
+  </si>
+  <si>
+    <t>152731494</t>
+  </si>
+  <si>
+    <t>152731492</t>
+  </si>
+  <si>
+    <t>120134041344</t>
+  </si>
+  <si>
+    <t>120222047314</t>
+  </si>
+  <si>
+    <t>130121032882</t>
+  </si>
+  <si>
+    <t>120136025442</t>
+  </si>
+  <si>
+    <t>120136030590</t>
+  </si>
+  <si>
+    <t>120133030061</t>
+  </si>
+  <si>
+    <t>110213030264</t>
+  </si>
+  <si>
+    <t>110213020955</t>
+  </si>
+  <si>
+    <t>110213020954</t>
+  </si>
+  <si>
+    <t>120142043312</t>
+  </si>
+  <si>
+    <t>120136030570</t>
+  </si>
+  <si>
+    <t>006000003454</t>
+  </si>
+  <si>
+    <t>017000003487</t>
+  </si>
+  <si>
+    <t>210010060164</t>
+  </si>
+  <si>
+    <t>112311D031080813</t>
+  </si>
+  <si>
+    <t>6317969378</t>
+  </si>
+  <si>
+    <t>4463026452</t>
+  </si>
+  <si>
+    <t>8590710294</t>
+  </si>
+  <si>
+    <t>5727702741</t>
+  </si>
+  <si>
+    <t>8030287400</t>
+  </si>
+  <si>
+    <t>0663784210</t>
+  </si>
+  <si>
+    <t>4716092000</t>
+  </si>
+  <si>
+    <t>0906335691</t>
+  </si>
+  <si>
+    <t>4931556871</t>
+  </si>
+  <si>
+    <t>310161025387</t>
+  </si>
+  <si>
+    <t>310161024748</t>
+  </si>
+  <si>
+    <t>150019118</t>
+  </si>
+  <si>
+    <t>100144687</t>
+  </si>
+  <si>
+    <t>152483019</t>
+  </si>
+  <si>
+    <t>153267601</t>
+  </si>
+  <si>
+    <t>153267595</t>
+  </si>
+  <si>
+    <t>154011282</t>
+  </si>
+  <si>
+    <t>154426309</t>
+  </si>
+  <si>
+    <t>154397528</t>
+  </si>
+  <si>
+    <t>154397530</t>
+  </si>
+  <si>
+    <t>154397527</t>
+  </si>
+  <si>
+    <t>154169184</t>
+  </si>
+  <si>
+    <t>154161035</t>
+  </si>
+  <si>
+    <t>153948363</t>
+  </si>
+  <si>
+    <t>153948354</t>
+  </si>
+  <si>
+    <t>153948356</t>
+  </si>
+  <si>
+    <t>153974957</t>
+  </si>
+  <si>
+    <t>153948366</t>
+  </si>
+  <si>
+    <t>153932234</t>
+  </si>
+  <si>
+    <t>18000190976</t>
+  </si>
+  <si>
+    <t>18000190958</t>
+  </si>
+  <si>
+    <t>18000190949</t>
+  </si>
+  <si>
+    <t>18000190967</t>
+  </si>
+  <si>
+    <t>18000190931</t>
+  </si>
+  <si>
+    <t>85000042713</t>
+  </si>
+  <si>
+    <t>9022302880</t>
+  </si>
+  <si>
+    <t>4122528893</t>
+  </si>
+  <si>
+    <t>3607358832</t>
+  </si>
+  <si>
+    <t>3443204851</t>
+  </si>
+  <si>
+    <t>1479593851</t>
+  </si>
+  <si>
+    <t>8747864808</t>
+  </si>
+  <si>
+    <t>1091092305</t>
+  </si>
+  <si>
+    <t>2273182099</t>
+  </si>
+  <si>
+    <t>2432244788</t>
+  </si>
+  <si>
+    <t>3441036009W</t>
+  </si>
+  <si>
+    <t>3441036008U</t>
+  </si>
+  <si>
+    <t>3441036013Q</t>
+  </si>
+  <si>
+    <t>3441036006R</t>
+  </si>
+  <si>
+    <t>3441036014R</t>
+  </si>
+  <si>
+    <t>IA94080800H</t>
+  </si>
+  <si>
+    <t>3441036010H</t>
+  </si>
+  <si>
+    <t>13010282010</t>
+  </si>
+  <si>
+    <t>13010280475</t>
+  </si>
+  <si>
+    <t>18307205786</t>
+  </si>
+  <si>
+    <t>13010280980</t>
+  </si>
+  <si>
+    <t>15009058863</t>
+  </si>
+  <si>
+    <t>13010281021</t>
+  </si>
+  <si>
+    <t>13010280998</t>
+  </si>
+  <si>
+    <t>42524236846</t>
+  </si>
+  <si>
+    <t>9786070297</t>
+  </si>
+  <si>
+    <t>7633597005</t>
+  </si>
+  <si>
+    <t>6572075018</t>
+  </si>
+  <si>
+    <t>6421001000</t>
+  </si>
+  <si>
+    <t>18307201985</t>
+  </si>
+  <si>
+    <t>18307202000</t>
+  </si>
+  <si>
+    <t>18307201993</t>
+  </si>
+  <si>
+    <t>18307202035</t>
+  </si>
+  <si>
+    <t>18307202027</t>
+  </si>
+  <si>
+    <t>18307201950</t>
+  </si>
+  <si>
+    <t>18307201977</t>
+  </si>
+  <si>
+    <t>18307202043</t>
+  </si>
+  <si>
+    <t>60002146128</t>
+  </si>
+  <si>
+    <t>2237478583</t>
+  </si>
+  <si>
+    <t>4677263233</t>
+  </si>
+  <si>
+    <t>211462053628</t>
+  </si>
+  <si>
+    <t>210114052125</t>
+  </si>
+  <si>
+    <t>211421036624</t>
+  </si>
+  <si>
+    <t>211421043843</t>
+  </si>
+  <si>
+    <t>211423018408</t>
+  </si>
+  <si>
+    <t>211424026529</t>
+  </si>
+  <si>
+    <t>211443034022</t>
+  </si>
+  <si>
+    <t>211424030640</t>
+  </si>
+  <si>
+    <t>211421042161</t>
+  </si>
+  <si>
+    <t>210414036293</t>
+  </si>
+  <si>
+    <t>320244022148</t>
+  </si>
+  <si>
+    <t>320232026403</t>
+  </si>
+  <si>
+    <t>320212022799</t>
+  </si>
+  <si>
+    <t>210722020213</t>
+  </si>
+  <si>
+    <t>210736016276</t>
+  </si>
+  <si>
+    <t>210721026295</t>
+  </si>
+  <si>
+    <t>210722010764</t>
+  </si>
+  <si>
+    <t>210722024719</t>
+  </si>
+  <si>
+    <t>210727000074</t>
+  </si>
+  <si>
+    <t>210727016523</t>
+  </si>
+  <si>
+    <t>210721027979</t>
+  </si>
+  <si>
+    <t>210722019167</t>
+  </si>
+  <si>
+    <t>210722018509</t>
+  </si>
+  <si>
+    <t>1155434036539</t>
+  </si>
+  <si>
+    <t>N2211017221</t>
+  </si>
+  <si>
+    <t>N2211004048</t>
+  </si>
+  <si>
+    <t>N2502024841</t>
+  </si>
+  <si>
+    <t>N2468016321</t>
+  </si>
+  <si>
+    <t>15632046745</t>
+  </si>
+  <si>
+    <t>15518243464</t>
+  </si>
+  <si>
+    <t>15518243456</t>
+  </si>
+  <si>
+    <t>14106136880</t>
+  </si>
+  <si>
+    <t>15509000040</t>
+  </si>
+  <si>
+    <t>15518243448</t>
+  </si>
+  <si>
+    <t>15518243430</t>
+  </si>
+  <si>
+    <t>15501001063</t>
+  </si>
+  <si>
+    <t>15518243472</t>
+  </si>
+  <si>
+    <t>15632046362</t>
+  </si>
+  <si>
+    <t>15501001055</t>
+  </si>
+  <si>
+    <t>15529066453</t>
+  </si>
+  <si>
+    <t>410013884459</t>
+  </si>
+  <si>
+    <t>610550451312</t>
+  </si>
+  <si>
+    <t>410023595684</t>
+  </si>
+  <si>
+    <t>417260006655</t>
+  </si>
+  <si>
+    <t>410023003621</t>
+  </si>
+  <si>
+    <t>419990013382</t>
+  </si>
+  <si>
+    <t>610557697031</t>
+  </si>
+  <si>
+    <t>000339033090</t>
+  </si>
+  <si>
+    <t>028512713264</t>
+  </si>
+  <si>
+    <t>000014396586</t>
+  </si>
+  <si>
+    <t>000011676804</t>
+  </si>
+  <si>
+    <t>2917937203</t>
+  </si>
+  <si>
+    <t>2529769470</t>
+  </si>
+  <si>
+    <t>2956490000</t>
+  </si>
+  <si>
+    <t>29714</t>
+  </si>
+  <si>
+    <t>N3973005890</t>
+  </si>
+  <si>
+    <t>N3973015247</t>
+  </si>
+  <si>
+    <t>N3378030243</t>
+  </si>
+  <si>
+    <t>N3001030182</t>
+  </si>
+  <si>
+    <t>N3001030189</t>
+  </si>
+  <si>
+    <t>N3372046363</t>
+  </si>
+  <si>
+    <t>N3684023770</t>
+  </si>
+  <si>
+    <t>N3471039746</t>
+  </si>
+  <si>
+    <t>N3373008085</t>
+  </si>
+  <si>
+    <t>3003007258</t>
+  </si>
+  <si>
+    <t>3008306068</t>
+  </si>
+  <si>
+    <t>3005103394</t>
+  </si>
+  <si>
+    <t>3008091568</t>
+  </si>
+  <si>
+    <t>3008090996</t>
+  </si>
+  <si>
+    <t>2661342323</t>
+  </si>
+  <si>
+    <t>9671829265</t>
+  </si>
+  <si>
+    <t>0120873820</t>
+  </si>
+  <si>
+    <t>900001214234</t>
+  </si>
+  <si>
+    <t>900001214175</t>
+  </si>
+  <si>
+    <t>900001214180</t>
+  </si>
+  <si>
+    <t>900001214178</t>
+  </si>
+  <si>
+    <t>900000039464</t>
+  </si>
+  <si>
+    <t>900000039480</t>
+  </si>
+  <si>
+    <t>101086636</t>
+  </si>
+  <si>
+    <t>050050031765</t>
+  </si>
+  <si>
+    <t>092370221654</t>
+  </si>
+  <si>
+    <t>092452434573</t>
+  </si>
+  <si>
+    <t>092630043737</t>
+  </si>
+  <si>
+    <t>011490292228</t>
+  </si>
+  <si>
+    <t>09251501768</t>
+  </si>
+  <si>
+    <t>094410045434</t>
+  </si>
+  <si>
+    <t>093270022948</t>
+  </si>
+  <si>
+    <t>093270022949</t>
+  </si>
+  <si>
+    <t>093270022779</t>
+  </si>
+  <si>
+    <t>09168015256</t>
+  </si>
+  <si>
+    <t>100613410</t>
+  </si>
+  <si>
+    <t>100234664</t>
+  </si>
+  <si>
+    <t>100234636</t>
+  </si>
+  <si>
+    <t>100234662</t>
+  </si>
+  <si>
+    <t>100728080</t>
+  </si>
+  <si>
+    <t>100555081</t>
+  </si>
+  <si>
+    <t>100551485</t>
+  </si>
+  <si>
+    <t>100551484</t>
+  </si>
+  <si>
+    <t>100555083</t>
+  </si>
+  <si>
+    <t>100551483</t>
+  </si>
+  <si>
+    <t>501135493</t>
+  </si>
+  <si>
+    <t>501157114</t>
+  </si>
+  <si>
+    <t>501135506</t>
+  </si>
+  <si>
+    <t>501135504</t>
+  </si>
+  <si>
+    <t>501135487</t>
+  </si>
+  <si>
+    <t>80034100406</t>
+  </si>
+  <si>
+    <t>811422200262</t>
+  </si>
+  <si>
+    <t>74801148808</t>
+  </si>
+  <si>
+    <t>73049309059</t>
+  </si>
+  <si>
+    <t>71930238185</t>
+  </si>
+  <si>
+    <t>73049293349</t>
+  </si>
+  <si>
+    <t>0374623514</t>
+  </si>
+  <si>
+    <t>2906549045</t>
+  </si>
+  <si>
+    <t>40106964140</t>
+  </si>
+  <si>
+    <t>40106962555</t>
+  </si>
+  <si>
+    <t>40106962199</t>
+  </si>
+  <si>
+    <t>40106964434</t>
+  </si>
+  <si>
+    <t>40106964671</t>
+  </si>
+  <si>
+    <t>40106965058</t>
+  </si>
+  <si>
+    <t>40106965090</t>
+  </si>
+  <si>
+    <t>5784160000</t>
+  </si>
+  <si>
+    <t>42200438315</t>
+  </si>
+  <si>
+    <t>42100178588</t>
+  </si>
+  <si>
+    <t>42200773416</t>
+  </si>
+  <si>
+    <t>42200441855</t>
   </si>
   <si>
     <t>402783423</t>
@@ -61,8 +841,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,47 +879,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf/>
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D230" totalsRowShown="0">
+  <autoFilter ref="A1:D230"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Provider"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mobile"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="₹ Amt." dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="BU"/>
+    <tableColumn id="1" name="Provider" dataDxfId="0"/>
+    <tableColumn id="2" name="Mobile" dataDxfId="0"/>
+    <tableColumn id="3" name="₹ Amt." dataDxfId="1"/>
+    <tableColumn id="4" name="BU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +950,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -208,7 +984,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -243,10 +1018,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,19 +1193,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,95 +1214,2758 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2">
-        <v>141697</v>
+        <v>99960</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
-        <v>110073</v>
+        <v>43330</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2">
-        <v>101323</v>
+        <v>12840</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2">
-        <v>85192</v>
+        <v>8080</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2">
-        <v>66935</v>
+        <v>48520</v>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
-        <v>57705</v>
+        <v>34390</v>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9570</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8170</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2">
+        <v>379458</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2">
+        <v>397122</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="2">
+        <v>317629</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1263584</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2">
+        <v>156417</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="2">
+        <v>117492</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2">
+        <v>88390</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2">
+        <v>62066</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2">
+        <v>61732</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2">
+        <v>225516</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6306</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2">
+        <v>518433</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4517</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="2">
+        <v>113893</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2449</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15870</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2">
+        <v>13576</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2">
+        <v>13569</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8820</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4946</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4887</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="2">
+        <v>43288</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2">
+        <v>162539</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="2">
+        <v>97708</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="2">
+        <v>133472</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="2">
+        <v>14847</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="2">
+        <v>17820</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2">
+        <v>164140</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="2">
+        <v>153640</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2">
+        <v>140150</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2">
+        <v>136060</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2">
+        <v>108380</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="2">
+        <v>106670</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="2">
+        <v>98580</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="2">
+        <v>97830</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="2">
+        <v>87410</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2">
+        <v>136740</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="2">
+        <v>135760</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="2">
+        <v>73170</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2">
+        <v>68240</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="2">
+        <v>66570</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="2">
+        <v>47250</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42300</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2210</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C54" s="2">
+        <v>54530</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="2">
+        <v>49180</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="2">
+        <v>47880</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57" s="2">
+        <v>47510</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43880</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="2">
+        <v>62740</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="2">
+        <v>130222</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="2">
+        <v>19820</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" s="2">
+        <v>18210</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="2">
+        <v>17089</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" s="2">
+        <v>13563</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" s="2">
+        <v>12886</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4687</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="2">
+        <v>896</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C68" s="2">
+        <v>480</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="2">
+        <v>52814</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C70" s="2">
+        <v>31143</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="2">
+        <v>23487</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="2">
+        <v>11596</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4119</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="2">
+        <v>395396</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C75" s="2">
+        <v>8485</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="2">
+        <v>68467</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C77" s="2">
+        <v>66801</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="2">
+        <v>29603</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="2">
+        <v>7494</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1658</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C81" s="2">
+        <v>24</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="2">
+        <v>24</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="2">
+        <v>48075</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="2">
+        <v>316294</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" s="2">
+        <v>323932</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="2">
+        <v>133698</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" s="2">
+        <v>85457</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" s="2">
+        <v>68970</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C89" s="2">
+        <v>58611</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90" s="2">
+        <v>55164</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43759</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92" s="2">
+        <v>43309</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" s="2">
+        <v>26980</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" s="2">
+        <v>26825</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C95" s="2">
+        <v>22274</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C96" s="2">
+        <v>4430</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C97" s="2">
+        <v>4073</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1269</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C99" s="2">
+        <v>14041</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C100" s="2">
+        <v>180456</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="2">
+        <v>608366</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C102" s="2">
+        <v>3358</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="2">
+        <v>824652</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C104" s="2">
+        <v>668275</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C105" s="2">
+        <v>313454</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C106" s="2">
+        <v>248219</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="2">
+        <v>189164</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="2">
+        <v>171251</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="2">
+        <v>479976</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="2">
+        <v>577210</v>
+      </c>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C111" s="2">
+        <v>108050</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="2">
+        <v>2256695</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1867855</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1542632</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C115" s="2">
+        <v>978760</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C116" s="2">
+        <v>614602</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C117" s="2">
+        <v>583631</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" s="2">
+        <v>387790</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="2">
+        <v>359625</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C120" s="2">
+        <v>350336</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C121" s="2">
+        <v>233878</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="2">
+        <v>151849</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C123" s="2">
+        <v>131631</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="2">
+        <v>40142</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C125" s="2">
+        <v>30226</v>
+      </c>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C126" s="2">
+        <v>172672</v>
+      </c>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C127" s="2">
+        <v>85262</v>
+      </c>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C128" s="2">
+        <v>82152</v>
+      </c>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C129" s="2">
+        <v>81176</v>
+      </c>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C130" s="2">
+        <v>75844</v>
+      </c>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C131" s="2">
+        <v>62041</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" s="2">
+        <v>52838</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C133" s="2">
+        <v>47183</v>
+      </c>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44385</v>
+      </c>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="2">
+        <v>39700</v>
+      </c>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="2">
+        <v>13336</v>
+      </c>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C137" s="2">
+        <v>36491</v>
+      </c>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C138" s="2">
+        <v>15076</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C139" s="2">
+        <v>283860</v>
+      </c>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C140" s="2">
+        <v>125510</v>
+      </c>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="2">
+        <v>118550</v>
+      </c>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C142" s="2">
+        <v>116960</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C143" s="2">
+        <v>36520</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C144" s="2">
+        <v>14590</v>
+      </c>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C145" s="2">
+        <v>2170</v>
+      </c>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" s="2">
+        <v>209830</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="2">
+        <v>102610</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44440</v>
+      </c>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C149" s="2">
+        <v>38440</v>
+      </c>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C150" s="2">
+        <v>614980</v>
+      </c>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C151" s="2">
+        <v>402363</v>
+      </c>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C152" s="2">
+        <v>3403</v>
+      </c>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C153" s="2">
+        <v>357252</v>
+      </c>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C154" s="2">
+        <v>72143</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C155" s="2">
+        <v>57221</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45963</v>
+      </c>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="2">
+        <v>162120</v>
+      </c>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="2">
+        <v>47804</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="2">
+        <v>11488</v>
+      </c>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="2">
+        <v>33402</v>
+      </c>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="2">
+        <v>71601</v>
+      </c>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44324</v>
+      </c>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="2">
+        <v>397100</v>
+      </c>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" s="2">
+        <v>269280</v>
+      </c>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C165" s="2">
+        <v>517810</v>
+      </c>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C166" s="2">
+        <v>15010</v>
+      </c>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C167" s="2">
+        <v>8620</v>
+      </c>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C168" s="2">
+        <v>56042</v>
+      </c>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C169" s="2">
+        <v>42194</v>
+      </c>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" s="2">
+        <v>23940</v>
+      </c>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C171" s="2">
+        <v>34666</v>
+      </c>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C172" s="2">
+        <v>27974</v>
+      </c>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C173" s="2">
+        <v>27732</v>
+      </c>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C174" s="2">
+        <v>26230</v>
+      </c>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" s="2">
+        <v>29228</v>
+      </c>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C176" s="2">
+        <v>33765</v>
+      </c>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1869</v>
+      </c>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C178" s="2">
+        <v>213801</v>
+      </c>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" s="2">
+        <v>445251</v>
+      </c>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C180" s="2">
+        <v>221224</v>
+      </c>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C181" s="2">
+        <v>199901</v>
+      </c>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C182" s="2">
+        <v>160571</v>
+      </c>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C183" s="2">
+        <v>151762</v>
+      </c>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C184" s="2">
+        <v>126495</v>
+      </c>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C185" s="2">
+        <v>111923</v>
+      </c>
+      <c r="D185" s="1"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C186" s="2">
+        <v>50530</v>
+      </c>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C187" s="2">
+        <v>18278</v>
+      </c>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C188" s="2">
+        <v>90941</v>
+      </c>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C189" s="2">
+        <v>1251000</v>
+      </c>
+      <c r="D189" s="1"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C190" s="2">
+        <v>76150</v>
+      </c>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C191" s="2">
+        <v>60840</v>
+      </c>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C192" s="2">
+        <v>56280</v>
+      </c>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C193" s="2">
+        <v>50290</v>
+      </c>
+      <c r="D193" s="1"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C194" s="2">
+        <v>68910</v>
+      </c>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C195" s="2">
+        <v>63600</v>
+      </c>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C196" s="2">
+        <v>52480</v>
+      </c>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C197" s="2">
+        <v>50270</v>
+      </c>
+      <c r="D197" s="1"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C199" s="2">
+        <v>7920</v>
+      </c>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C200" s="2">
+        <v>4300</v>
+      </c>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C201" s="2">
+        <v>3390</v>
+      </c>
+      <c r="D201" s="1"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C202" s="2">
+        <v>1850</v>
+      </c>
+      <c r="D202" s="1"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C203" s="2">
+        <v>33480</v>
+      </c>
+      <c r="D203" s="1"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C204" s="2">
+        <v>130585</v>
+      </c>
+      <c r="D204" s="1"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1756</v>
+      </c>
+      <c r="D205" s="1"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C206" s="2">
+        <v>105014</v>
+      </c>
+      <c r="D206" s="1"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C207" s="2">
+        <v>97395</v>
+      </c>
+      <c r="D207" s="1"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C208" s="2">
+        <v>44217</v>
+      </c>
+      <c r="D208" s="1"/>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4623</v>
+      </c>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C210" s="2">
+        <v>160144</v>
+      </c>
+      <c r="D210" s="1"/>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C211" s="2">
+        <v>104947</v>
+      </c>
+      <c r="D211" s="1"/>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C212" s="2">
+        <v>16001</v>
+      </c>
+      <c r="D212" s="1"/>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C213" s="2">
+        <v>14364</v>
+      </c>
+      <c r="D213" s="1"/>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C214" s="2">
+        <v>8508</v>
+      </c>
+      <c r="D214" s="1"/>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C215" s="2">
+        <v>6996</v>
+      </c>
+      <c r="D215" s="1"/>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C216" s="2">
+        <v>6906</v>
+      </c>
+      <c r="D216" s="1"/>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C217" s="2">
+        <v>3022</v>
+      </c>
+      <c r="D217" s="1"/>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C218" s="2">
+        <v>3185</v>
+      </c>
+      <c r="D218" s="1"/>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C219" s="2">
+        <v>311627</v>
+      </c>
+      <c r="D219" s="1"/>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C220" s="2">
+        <v>124220</v>
+      </c>
+      <c r="D220" s="1"/>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C221" s="2">
+        <v>46850</v>
+      </c>
+      <c r="D221" s="1"/>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C222" s="2">
+        <v>29968</v>
+      </c>
+      <c r="D222" s="1"/>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C223" s="2">
+        <v>26764</v>
+      </c>
+      <c r="D223" s="1"/>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C224" s="2">
+        <v>141697</v>
+      </c>
+      <c r="D224" s="1"/>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C225" s="2">
+        <v>110073</v>
+      </c>
+      <c r="D225" s="1"/>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C226" s="2">
+        <v>101323</v>
+      </c>
+      <c r="D226" s="1"/>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C227" s="2">
+        <v>85192</v>
+      </c>
+      <c r="D227" s="1"/>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C228" s="2">
+        <v>66935</v>
+      </c>
+      <c r="D228" s="1"/>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C229" s="2">
+        <v>57705</v>
+      </c>
+      <c r="D229" s="1"/>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C230" s="2">
         <v>57630</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D230" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Python_Projects_And_Repos\Billscrape\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDAD7A7-4377-40F7-BEA6-D55F56DF818B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -841,11 +847,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -887,32 +890,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf/>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D230" totalsRowShown="0">
-  <autoFilter ref="A1:D230"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:D230" totalsRowShown="0">
+  <autoFilter ref="A1:D230" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Provider" dataDxfId="0"/>
-    <tableColumn id="2" name="Mobile" dataDxfId="0"/>
-    <tableColumn id="3" name="₹ Amt." dataDxfId="1"/>
-    <tableColumn id="4" name="BU" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Provider"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mobile"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="₹ Amt." dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="BU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -950,7 +963,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -984,6 +997,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1018,9 +1032,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1193,14 +1208,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1214,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1224,9 +1247,9 @@
       <c r="C2" s="2">
         <v>99960</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1236,9 +1259,9 @@
       <c r="C3" s="2">
         <v>43330</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1248,9 +1271,9 @@
       <c r="C4" s="2">
         <v>12840</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1260,9 +1283,9 @@
       <c r="C5" s="2">
         <v>8080</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1272,9 +1295,9 @@
       <c r="C6" s="2">
         <v>48520</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1284,9 +1307,9 @@
       <c r="C7" s="2">
         <v>34390</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1296,9 +1319,9 @@
       <c r="C8" s="2">
         <v>9570</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1308,9 +1331,9 @@
       <c r="C9" s="2">
         <v>8170</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -1320,9 +1343,9 @@
       <c r="C10" s="2">
         <v>379458</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1332,9 +1355,9 @@
       <c r="C11" s="2">
         <v>397122</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1344,9 +1367,9 @@
       <c r="C12" s="2">
         <v>317629</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -1356,9 +1379,9 @@
       <c r="C13" s="2">
         <v>1263584</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1368,9 +1391,9 @@
       <c r="C14" s="2">
         <v>156417</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1380,9 +1403,9 @@
       <c r="C15" s="2">
         <v>117492</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -1392,9 +1415,9 @@
       <c r="C16" s="2">
         <v>88390</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -1404,9 +1427,9 @@
       <c r="C17" s="2">
         <v>62066</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1416,9 +1439,9 @@
       <c r="C18" s="2">
         <v>61732</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -1428,9 +1451,9 @@
       <c r="C19" s="2">
         <v>225516</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1440,9 +1463,9 @@
       <c r="C20" s="2">
         <v>6306</v>
       </c>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -1452,9 +1475,9 @@
       <c r="C21" s="2">
         <v>518433</v>
       </c>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1464,9 +1487,9 @@
       <c r="C22" s="2">
         <v>4517</v>
       </c>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
@@ -1476,9 +1499,9 @@
       <c r="C23" s="2">
         <v>113893</v>
       </c>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1488,9 +1511,9 @@
       <c r="C24" s="2">
         <v>2449</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
@@ -1500,9 +1523,9 @@
       <c r="C25" s="2">
         <v>15870</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
@@ -1512,9 +1535,9 @@
       <c r="C26" s="2">
         <v>13576</v>
       </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1524,9 +1547,9 @@
       <c r="C27" s="2">
         <v>13569</v>
       </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1536,9 +1559,9 @@
       <c r="C28" s="2">
         <v>8820</v>
       </c>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1548,9 +1571,9 @@
       <c r="C29" s="2">
         <v>4946</v>
       </c>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1560,9 +1583,9 @@
       <c r="C30" s="2">
         <v>4887</v>
       </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1572,9 +1595,9 @@
       <c r="C31" s="2">
         <v>43288</v>
       </c>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
@@ -1584,9 +1607,9 @@
       <c r="C32" s="2">
         <v>162539</v>
       </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
@@ -1596,9 +1619,9 @@
       <c r="C33" s="2">
         <v>97708</v>
       </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -1608,9 +1631,9 @@
       <c r="C34" s="2">
         <v>133472</v>
       </c>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -1620,9 +1643,9 @@
       <c r="C35" s="2">
         <v>14847</v>
       </c>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1632,9 +1655,9 @@
       <c r="C36" s="2">
         <v>17820</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -1644,9 +1667,9 @@
       <c r="C37" s="2">
         <v>164140</v>
       </c>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -1656,9 +1679,9 @@
       <c r="C38" s="2">
         <v>153640</v>
       </c>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -1668,9 +1691,9 @@
       <c r="C39" s="2">
         <v>140150</v>
       </c>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -1680,9 +1703,9 @@
       <c r="C40" s="2">
         <v>136060</v>
       </c>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -1692,9 +1715,9 @@
       <c r="C41" s="2">
         <v>108380</v>
       </c>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1704,9 +1727,9 @@
       <c r="C42" s="2">
         <v>106670</v>
       </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -1716,9 +1739,9 @@
       <c r="C43" s="2">
         <v>98580</v>
       </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -1728,9 +1751,9 @@
       <c r="C44" s="2">
         <v>97830</v>
       </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -1740,9 +1763,9 @@
       <c r="C45" s="2">
         <v>87410</v>
       </c>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
@@ -1752,9 +1775,9 @@
       <c r="C46" s="2">
         <v>136740</v>
       </c>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
@@ -1764,9 +1787,9 @@
       <c r="C47" s="2">
         <v>135760</v>
       </c>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
@@ -1776,9 +1799,9 @@
       <c r="C48" s="2">
         <v>73170</v>
       </c>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
@@ -1788,9 +1811,9 @@
       <c r="C49" s="2">
         <v>68240</v>
       </c>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -1800,9 +1823,9 @@
       <c r="C50" s="2">
         <v>66570</v>
       </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
@@ -1812,9 +1835,9 @@
       <c r="C51" s="2">
         <v>47250</v>
       </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
@@ -1824,9 +1847,9 @@
       <c r="C52" s="2">
         <v>42300</v>
       </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
@@ -1836,9 +1859,9 @@
       <c r="C53" s="2">
         <v>2210</v>
       </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1848,9 +1871,9 @@
       <c r="C54" s="2">
         <v>54530</v>
       </c>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -1860,9 +1883,9 @@
       <c r="C55" s="2">
         <v>49180</v>
       </c>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
@@ -1872,9 +1895,9 @@
       <c r="C56" s="2">
         <v>47880</v>
       </c>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
@@ -1884,9 +1907,9 @@
       <c r="C57" s="2">
         <v>47510</v>
       </c>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
@@ -1896,9 +1919,9 @@
       <c r="C58" s="2">
         <v>43880</v>
       </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
@@ -1908,9 +1931,9 @@
       <c r="C59" s="2">
         <v>62740</v>
       </c>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
@@ -1920,9 +1943,9 @@
       <c r="C60" s="2">
         <v>130222</v>
       </c>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
@@ -1932,9 +1955,9 @@
       <c r="C61" s="2">
         <v>19820</v>
       </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -1944,9 +1967,9 @@
       <c r="C62" s="2">
         <v>18210</v>
       </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
@@ -1956,9 +1979,9 @@
       <c r="C63" s="2">
         <v>17089</v>
       </c>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
@@ -1968,9 +1991,9 @@
       <c r="C64" s="2">
         <v>13563</v>
       </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
@@ -1980,9 +2003,9 @@
       <c r="C65" s="2">
         <v>12886</v>
       </c>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
@@ -1992,9 +2015,9 @@
       <c r="C66" s="2">
         <v>4687</v>
       </c>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
@@ -2004,9 +2027,9 @@
       <c r="C67" s="2">
         <v>896</v>
       </c>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
@@ -2016,9 +2039,9 @@
       <c r="C68" s="2">
         <v>480</v>
       </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
@@ -2028,9 +2051,9 @@
       <c r="C69" s="2">
         <v>52814</v>
       </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
@@ -2040,9 +2063,9 @@
       <c r="C70" s="2">
         <v>31143</v>
       </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
@@ -2052,9 +2075,9 @@
       <c r="C71" s="2">
         <v>23487</v>
       </c>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
@@ -2064,9 +2087,9 @@
       <c r="C72" s="2">
         <v>11596</v>
       </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
@@ -2076,9 +2099,9 @@
       <c r="C73" s="2">
         <v>4119</v>
       </c>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>14</v>
       </c>
@@ -2088,9 +2111,9 @@
       <c r="C74" s="2">
         <v>395396</v>
       </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
@@ -2100,9 +2123,9 @@
       <c r="C75" s="2">
         <v>8485</v>
       </c>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>15</v>
       </c>
@@ -2112,9 +2135,9 @@
       <c r="C76" s="2">
         <v>68467</v>
       </c>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>15</v>
       </c>
@@ -2124,9 +2147,9 @@
       <c r="C77" s="2">
         <v>66801</v>
       </c>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>15</v>
       </c>
@@ -2136,9 +2159,9 @@
       <c r="C78" s="2">
         <v>29603</v>
       </c>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>15</v>
       </c>
@@ -2148,9 +2171,9 @@
       <c r="C79" s="2">
         <v>7494</v>
       </c>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>15</v>
       </c>
@@ -2160,9 +2183,9 @@
       <c r="C80" s="2">
         <v>1658</v>
       </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>15</v>
       </c>
@@ -2172,9 +2195,9 @@
       <c r="C81" s="2">
         <v>24</v>
       </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>15</v>
       </c>
@@ -2184,9 +2207,9 @@
       <c r="C82" s="2">
         <v>24</v>
       </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>15</v>
       </c>
@@ -2196,9 +2219,9 @@
       <c r="C83" s="2">
         <v>48075</v>
       </c>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
@@ -2208,9 +2231,9 @@
       <c r="C84" s="2">
         <v>316294</v>
       </c>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>16</v>
       </c>
@@ -2220,9 +2243,9 @@
       <c r="C85" s="2">
         <v>323932</v>
       </c>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>16</v>
       </c>
@@ -2232,9 +2255,9 @@
       <c r="C86" s="2">
         <v>133698</v>
       </c>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>16</v>
       </c>
@@ -2244,9 +2267,9 @@
       <c r="C87" s="2">
         <v>85457</v>
       </c>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>17</v>
       </c>
@@ -2256,9 +2279,9 @@
       <c r="C88" s="2">
         <v>68970</v>
       </c>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>17</v>
       </c>
@@ -2268,9 +2291,9 @@
       <c r="C89" s="2">
         <v>58611</v>
       </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>17</v>
       </c>
@@ -2280,9 +2303,9 @@
       <c r="C90" s="2">
         <v>55164</v>
       </c>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>17</v>
       </c>
@@ -2292,9 +2315,9 @@
       <c r="C91" s="2">
         <v>43759</v>
       </c>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>17</v>
       </c>
@@ -2304,9 +2327,9 @@
       <c r="C92" s="2">
         <v>43309</v>
       </c>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>17</v>
       </c>
@@ -2316,9 +2339,9 @@
       <c r="C93" s="2">
         <v>26980</v>
       </c>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>17</v>
       </c>
@@ -2328,9 +2351,9 @@
       <c r="C94" s="2">
         <v>26825</v>
       </c>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>17</v>
       </c>
@@ -2340,9 +2363,9 @@
       <c r="C95" s="2">
         <v>22274</v>
       </c>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -2352,9 +2375,9 @@
       <c r="C96" s="2">
         <v>4430</v>
       </c>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>19</v>
       </c>
@@ -2364,9 +2387,9 @@
       <c r="C97" s="2">
         <v>4073</v>
       </c>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>19</v>
       </c>
@@ -2376,9 +2399,9 @@
       <c r="C98" s="2">
         <v>1269</v>
       </c>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
@@ -2388,9 +2411,9 @@
       <c r="C99" s="2">
         <v>14041</v>
       </c>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>20</v>
       </c>
@@ -2400,9 +2423,9 @@
       <c r="C100" s="2">
         <v>180456</v>
       </c>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>20</v>
       </c>
@@ -2412,9 +2435,9 @@
       <c r="C101" s="2">
         <v>608366</v>
       </c>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>20</v>
       </c>
@@ -2424,9 +2447,9 @@
       <c r="C102" s="2">
         <v>3358</v>
       </c>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>20</v>
       </c>
@@ -2436,9 +2459,9 @@
       <c r="C103" s="2">
         <v>824652</v>
       </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
@@ -2448,9 +2471,9 @@
       <c r="C104" s="2">
         <v>668275</v>
       </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="D104" s="2"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
@@ -2460,9 +2483,9 @@
       <c r="C105" s="2">
         <v>313454</v>
       </c>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="D105" s="2"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
@@ -2472,9 +2495,9 @@
       <c r="C106" s="2">
         <v>248219</v>
       </c>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="D106" s="2"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>20</v>
       </c>
@@ -2484,9 +2507,9 @@
       <c r="C107" s="2">
         <v>189164</v>
       </c>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>20</v>
       </c>
@@ -2496,9 +2519,9 @@
       <c r="C108" s="2">
         <v>171251</v>
       </c>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
@@ -2508,9 +2531,9 @@
       <c r="C109" s="2">
         <v>479976</v>
       </c>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>21</v>
       </c>
@@ -2520,9 +2543,9 @@
       <c r="C110" s="2">
         <v>577210</v>
       </c>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>21</v>
       </c>
@@ -2532,9 +2555,9 @@
       <c r="C111" s="2">
         <v>108050</v>
       </c>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>22</v>
       </c>
@@ -2544,9 +2567,9 @@
       <c r="C112" s="2">
         <v>2256695</v>
       </c>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>22</v>
       </c>
@@ -2556,9 +2579,9 @@
       <c r="C113" s="2">
         <v>1867855</v>
       </c>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>22</v>
       </c>
@@ -2568,9 +2591,9 @@
       <c r="C114" s="2">
         <v>1542632</v>
       </c>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>22</v>
       </c>
@@ -2580,9 +2603,9 @@
       <c r="C115" s="2">
         <v>978760</v>
       </c>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>22</v>
       </c>
@@ -2592,9 +2615,9 @@
       <c r="C116" s="2">
         <v>614602</v>
       </c>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>22</v>
       </c>
@@ -2604,9 +2627,9 @@
       <c r="C117" s="2">
         <v>583631</v>
       </c>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>22</v>
       </c>
@@ -2616,9 +2639,9 @@
       <c r="C118" s="2">
         <v>387790</v>
       </c>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>22</v>
       </c>
@@ -2628,9 +2651,9 @@
       <c r="C119" s="2">
         <v>359625</v>
       </c>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="D119" s="2"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>22</v>
       </c>
@@ -2640,9 +2663,9 @@
       <c r="C120" s="2">
         <v>350336</v>
       </c>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="D120" s="2"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>22</v>
       </c>
@@ -2652,9 +2675,9 @@
       <c r="C121" s="2">
         <v>233878</v>
       </c>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="D121" s="2"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>23</v>
       </c>
@@ -2664,9 +2687,9 @@
       <c r="C122" s="2">
         <v>151849</v>
       </c>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>24</v>
       </c>
@@ -2676,9 +2699,9 @@
       <c r="C123" s="2">
         <v>131631</v>
       </c>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="D123" s="2"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>24</v>
       </c>
@@ -2688,9 +2711,9 @@
       <c r="C124" s="2">
         <v>40142</v>
       </c>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>24</v>
       </c>
@@ -2700,9 +2723,9 @@
       <c r="C125" s="2">
         <v>30226</v>
       </c>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="D125" s="2"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>24</v>
       </c>
@@ -2712,9 +2735,9 @@
       <c r="C126" s="2">
         <v>172672</v>
       </c>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>25</v>
       </c>
@@ -2724,9 +2747,9 @@
       <c r="C127" s="2">
         <v>85262</v>
       </c>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="D127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>25</v>
       </c>
@@ -2736,9 +2759,9 @@
       <c r="C128" s="2">
         <v>82152</v>
       </c>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="D128" s="2"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>25</v>
       </c>
@@ -2748,9 +2771,9 @@
       <c r="C129" s="2">
         <v>81176</v>
       </c>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="D129" s="2"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>25</v>
       </c>
@@ -2760,9 +2783,9 @@
       <c r="C130" s="2">
         <v>75844</v>
       </c>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="D130" s="2"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>25</v>
       </c>
@@ -2772,9 +2795,9 @@
       <c r="C131" s="2">
         <v>62041</v>
       </c>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>25</v>
       </c>
@@ -2784,9 +2807,9 @@
       <c r="C132" s="2">
         <v>52838</v>
       </c>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="D132" s="2"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>25</v>
       </c>
@@ -2796,9 +2819,9 @@
       <c r="C133" s="2">
         <v>47183</v>
       </c>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="D133" s="2"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>25</v>
       </c>
@@ -2808,9 +2831,9 @@
       <c r="C134" s="2">
         <v>44385</v>
       </c>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="D134" s="2"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>25</v>
       </c>
@@ -2820,9 +2843,9 @@
       <c r="C135" s="2">
         <v>39700</v>
       </c>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="D135" s="2"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -2832,9 +2855,9 @@
       <c r="C136" s="2">
         <v>13336</v>
       </c>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="D136" s="2"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>25</v>
       </c>
@@ -2844,9 +2867,9 @@
       <c r="C137" s="2">
         <v>36491</v>
       </c>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="D137" s="2"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>25</v>
       </c>
@@ -2856,9 +2879,9 @@
       <c r="C138" s="2">
         <v>15076</v>
       </c>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="D138" s="2"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>26</v>
       </c>
@@ -2868,9 +2891,11 @@
       <c r="C139" s="2">
         <v>283860</v>
       </c>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="D139" s="2">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>26</v>
       </c>
@@ -2880,9 +2905,11 @@
       <c r="C140" s="2">
         <v>125510</v>
       </c>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="D140" s="2">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>26</v>
       </c>
@@ -2892,9 +2919,11 @@
       <c r="C141" s="2">
         <v>118550</v>
       </c>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="D141" s="2">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>26</v>
       </c>
@@ -2904,9 +2933,11 @@
       <c r="C142" s="2">
         <v>116960</v>
       </c>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="D142" s="2">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>26</v>
       </c>
@@ -2916,9 +2947,11 @@
       <c r="C143" s="2">
         <v>36520</v>
       </c>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="D143" s="2">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>26</v>
       </c>
@@ -2928,9 +2961,11 @@
       <c r="C144" s="2">
         <v>14590</v>
       </c>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="D144" s="2">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>26</v>
       </c>
@@ -2940,9 +2975,11 @@
       <c r="C145" s="2">
         <v>2170</v>
       </c>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="D145" s="2">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>26</v>
       </c>
@@ -2952,9 +2989,11 @@
       <c r="C146" s="2">
         <v>209830</v>
       </c>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="D146" s="2">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>26</v>
       </c>
@@ -2964,9 +3003,11 @@
       <c r="C147" s="2">
         <v>102610</v>
       </c>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="D147" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>26</v>
       </c>
@@ -2976,9 +3017,11 @@
       <c r="C148" s="2">
         <v>44440</v>
       </c>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="D148" s="2">
+        <v>4541</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>26</v>
       </c>
@@ -2988,9 +3031,11 @@
       <c r="C149" s="2">
         <v>38440</v>
       </c>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="D149" s="2">
+        <v>4527</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>27</v>
       </c>
@@ -3000,9 +3045,9 @@
       <c r="C150" s="2">
         <v>614980</v>
       </c>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="D150" s="2"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>27</v>
       </c>
@@ -3012,9 +3057,9 @@
       <c r="C151" s="2">
         <v>402363</v>
       </c>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>27</v>
       </c>
@@ -3024,9 +3069,9 @@
       <c r="C152" s="2">
         <v>3403</v>
       </c>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="D152" s="2"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>28</v>
       </c>
@@ -3036,9 +3081,9 @@
       <c r="C153" s="2">
         <v>357252</v>
       </c>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="D153" s="2"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>29</v>
       </c>
@@ -3048,9 +3093,9 @@
       <c r="C154" s="2">
         <v>72143</v>
       </c>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="D154" s="2"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>29</v>
       </c>
@@ -3060,9 +3105,9 @@
       <c r="C155" s="2">
         <v>57221</v>
       </c>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>29</v>
       </c>
@@ -3072,9 +3117,9 @@
       <c r="C156" s="2">
         <v>45963</v>
       </c>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>29</v>
       </c>
@@ -3084,9 +3129,9 @@
       <c r="C157" s="2">
         <v>162120</v>
       </c>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="D157" s="2"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>29</v>
       </c>
@@ -3096,9 +3141,9 @@
       <c r="C158" s="2">
         <v>47804</v>
       </c>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>29</v>
       </c>
@@ -3108,9 +3153,9 @@
       <c r="C159" s="2">
         <v>11488</v>
       </c>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="D159" s="2"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>29</v>
       </c>
@@ -3120,9 +3165,9 @@
       <c r="C160" s="2">
         <v>33402</v>
       </c>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="D160" s="2"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>29</v>
       </c>
@@ -3132,9 +3177,9 @@
       <c r="C161" s="2">
         <v>71601</v>
       </c>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="D161" s="2"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>29</v>
       </c>
@@ -3144,9 +3189,9 @@
       <c r="C162" s="2">
         <v>44324</v>
       </c>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>30</v>
       </c>
@@ -3156,9 +3201,9 @@
       <c r="C163" s="2">
         <v>397100</v>
       </c>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="D163" s="2"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>30</v>
       </c>
@@ -3168,9 +3213,9 @@
       <c r="C164" s="2">
         <v>269280</v>
       </c>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="D164" s="2"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>30</v>
       </c>
@@ -3180,9 +3225,9 @@
       <c r="C165" s="2">
         <v>517810</v>
       </c>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="D165" s="2"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>30</v>
       </c>
@@ -3192,9 +3237,9 @@
       <c r="C166" s="2">
         <v>15010</v>
       </c>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="D166" s="2"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>30</v>
       </c>
@@ -3204,9 +3249,9 @@
       <c r="C167" s="2">
         <v>8620</v>
       </c>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="D167" s="2"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>31</v>
       </c>
@@ -3216,9 +3261,9 @@
       <c r="C168" s="2">
         <v>56042</v>
       </c>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="D168" s="2"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>31</v>
       </c>
@@ -3228,9 +3273,9 @@
       <c r="C169" s="2">
         <v>42194</v>
       </c>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="D169" s="2"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>31</v>
       </c>
@@ -3240,9 +3285,9 @@
       <c r="C170" s="2">
         <v>23940</v>
       </c>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="D170" s="2"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>32</v>
       </c>
@@ -3252,9 +3297,9 @@
       <c r="C171" s="2">
         <v>34666</v>
       </c>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="D171" s="2"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>32</v>
       </c>
@@ -3264,9 +3309,9 @@
       <c r="C172" s="2">
         <v>27974</v>
       </c>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="D172" s="2"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>32</v>
       </c>
@@ -3276,9 +3321,9 @@
       <c r="C173" s="2">
         <v>27732</v>
       </c>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="D173" s="2"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>32</v>
       </c>
@@ -3288,9 +3333,9 @@
       <c r="C174" s="2">
         <v>26230</v>
       </c>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="D174" s="2"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>32</v>
       </c>
@@ -3300,9 +3345,9 @@
       <c r="C175" s="2">
         <v>29228</v>
       </c>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="D175" s="2"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>32</v>
       </c>
@@ -3312,9 +3357,9 @@
       <c r="C176" s="2">
         <v>33765</v>
       </c>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="D176" s="2"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>33</v>
       </c>
@@ -3324,9 +3369,9 @@
       <c r="C177" s="2">
         <v>1869</v>
       </c>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="D177" s="2"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>34</v>
       </c>
@@ -3336,9 +3381,9 @@
       <c r="C178" s="2">
         <v>213801</v>
       </c>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="D178" s="2"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>34</v>
       </c>
@@ -3348,9 +3393,9 @@
       <c r="C179" s="2">
         <v>445251</v>
       </c>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="D179" s="2"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>34</v>
       </c>
@@ -3360,9 +3405,9 @@
       <c r="C180" s="2">
         <v>221224</v>
       </c>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="D180" s="2"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>34</v>
       </c>
@@ -3372,9 +3417,9 @@
       <c r="C181" s="2">
         <v>199901</v>
       </c>
-      <c r="D181" s="1"/>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="D181" s="2"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>34</v>
       </c>
@@ -3384,9 +3429,9 @@
       <c r="C182" s="2">
         <v>160571</v>
       </c>
-      <c r="D182" s="1"/>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="D182" s="2"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>34</v>
       </c>
@@ -3396,9 +3441,9 @@
       <c r="C183" s="2">
         <v>151762</v>
       </c>
-      <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="D183" s="2"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>34</v>
       </c>
@@ -3408,9 +3453,9 @@
       <c r="C184" s="2">
         <v>126495</v>
       </c>
-      <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="D184" s="2"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>34</v>
       </c>
@@ -3420,9 +3465,9 @@
       <c r="C185" s="2">
         <v>111923</v>
       </c>
-      <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="D185" s="2"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>34</v>
       </c>
@@ -3432,9 +3477,9 @@
       <c r="C186" s="2">
         <v>50530</v>
       </c>
-      <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="D186" s="2"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>34</v>
       </c>
@@ -3444,9 +3489,9 @@
       <c r="C187" s="2">
         <v>18278</v>
       </c>
-      <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="D187" s="2"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>34</v>
       </c>
@@ -3456,9 +3501,9 @@
       <c r="C188" s="2">
         <v>90941</v>
       </c>
-      <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>35</v>
       </c>
@@ -3468,9 +3513,9 @@
       <c r="C189" s="2">
         <v>1251000</v>
       </c>
-      <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="D189" s="2"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>35</v>
       </c>
@@ -3480,9 +3525,9 @@
       <c r="C190" s="2">
         <v>76150</v>
       </c>
-      <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="D190" s="2"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>35</v>
       </c>
@@ -3492,9 +3537,9 @@
       <c r="C191" s="2">
         <v>60840</v>
       </c>
-      <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="D191" s="2"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>35</v>
       </c>
@@ -3504,9 +3549,9 @@
       <c r="C192" s="2">
         <v>56280</v>
       </c>
-      <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="D192" s="2"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>35</v>
       </c>
@@ -3516,9 +3561,9 @@
       <c r="C193" s="2">
         <v>50290</v>
       </c>
-      <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="D193" s="2"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>35</v>
       </c>
@@ -3528,9 +3573,9 @@
       <c r="C194" s="2">
         <v>68910</v>
       </c>
-      <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="D194" s="2"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>35</v>
       </c>
@@ -3540,9 +3585,9 @@
       <c r="C195" s="2">
         <v>63600</v>
       </c>
-      <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="D195" s="2"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>35</v>
       </c>
@@ -3552,9 +3597,9 @@
       <c r="C196" s="2">
         <v>52480</v>
       </c>
-      <c r="D196" s="1"/>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="D196" s="2"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>35</v>
       </c>
@@ -3564,9 +3609,9 @@
       <c r="C197" s="2">
         <v>50270</v>
       </c>
-      <c r="D197" s="1"/>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="D197" s="2"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>35</v>
       </c>
@@ -3576,9 +3621,9 @@
       <c r="C198" s="2">
         <v>45940</v>
       </c>
-      <c r="D198" s="1"/>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="D198" s="2"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>36</v>
       </c>
@@ -3588,9 +3633,9 @@
       <c r="C199" s="2">
         <v>7920</v>
       </c>
-      <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="D199" s="2"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>36</v>
       </c>
@@ -3600,9 +3645,9 @@
       <c r="C200" s="2">
         <v>4300</v>
       </c>
-      <c r="D200" s="1"/>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="D200" s="2"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>36</v>
       </c>
@@ -3612,9 +3657,9 @@
       <c r="C201" s="2">
         <v>3390</v>
       </c>
-      <c r="D201" s="1"/>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="D201" s="2"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>36</v>
       </c>
@@ -3624,9 +3669,9 @@
       <c r="C202" s="2">
         <v>1850</v>
       </c>
-      <c r="D202" s="1"/>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="D202" s="2"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>36</v>
       </c>
@@ -3636,9 +3681,9 @@
       <c r="C203" s="2">
         <v>33480</v>
       </c>
-      <c r="D203" s="1"/>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="D203" s="2"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>37</v>
       </c>
@@ -3648,9 +3693,9 @@
       <c r="C204" s="2">
         <v>130585</v>
       </c>
-      <c r="D204" s="1"/>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="D204" s="2"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>38</v>
       </c>
@@ -3660,9 +3705,9 @@
       <c r="C205" s="2">
         <v>1756</v>
       </c>
-      <c r="D205" s="1"/>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="D205" s="2"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>39</v>
       </c>
@@ -3672,9 +3717,9 @@
       <c r="C206" s="2">
         <v>105014</v>
       </c>
-      <c r="D206" s="1"/>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="D206" s="2"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>39</v>
       </c>
@@ -3684,9 +3729,9 @@
       <c r="C207" s="2">
         <v>97395</v>
       </c>
-      <c r="D207" s="1"/>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="D207" s="2"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>39</v>
       </c>
@@ -3696,9 +3741,9 @@
       <c r="C208" s="2">
         <v>44217</v>
       </c>
-      <c r="D208" s="1"/>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="D208" s="2"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>39</v>
       </c>
@@ -3708,9 +3753,9 @@
       <c r="C209" s="2">
         <v>4623</v>
       </c>
-      <c r="D209" s="1"/>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="D209" s="2"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>40</v>
       </c>
@@ -3720,9 +3765,9 @@
       <c r="C210" s="2">
         <v>160144</v>
       </c>
-      <c r="D210" s="1"/>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="D210" s="2"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>40</v>
       </c>
@@ -3732,9 +3777,9 @@
       <c r="C211" s="2">
         <v>104947</v>
       </c>
-      <c r="D211" s="1"/>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>41</v>
       </c>
@@ -3744,9 +3789,9 @@
       <c r="C212" s="2">
         <v>16001</v>
       </c>
-      <c r="D212" s="1"/>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="D212" s="2"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>41</v>
       </c>
@@ -3756,9 +3801,9 @@
       <c r="C213" s="2">
         <v>14364</v>
       </c>
-      <c r="D213" s="1"/>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="D213" s="2"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>41</v>
       </c>
@@ -3768,9 +3813,9 @@
       <c r="C214" s="2">
         <v>8508</v>
       </c>
-      <c r="D214" s="1"/>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="D214" s="2"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>41</v>
       </c>
@@ -3780,9 +3825,9 @@
       <c r="C215" s="2">
         <v>6996</v>
       </c>
-      <c r="D215" s="1"/>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="D215" s="2"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>41</v>
       </c>
@@ -3792,9 +3837,9 @@
       <c r="C216" s="2">
         <v>6906</v>
       </c>
-      <c r="D216" s="1"/>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="D216" s="2"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>41</v>
       </c>
@@ -3804,9 +3849,9 @@
       <c r="C217" s="2">
         <v>3022</v>
       </c>
-      <c r="D217" s="1"/>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="D217" s="2"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>41</v>
       </c>
@@ -3816,9 +3861,9 @@
       <c r="C218" s="2">
         <v>3185</v>
       </c>
-      <c r="D218" s="1"/>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="D218" s="2"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>42</v>
       </c>
@@ -3828,9 +3873,9 @@
       <c r="C219" s="2">
         <v>311627</v>
       </c>
-      <c r="D219" s="1"/>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="D219" s="2"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>43</v>
       </c>
@@ -3840,9 +3885,9 @@
       <c r="C220" s="2">
         <v>124220</v>
       </c>
-      <c r="D220" s="1"/>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="D220" s="2"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>43</v>
       </c>
@@ -3852,9 +3897,9 @@
       <c r="C221" s="2">
         <v>46850</v>
       </c>
-      <c r="D221" s="1"/>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="D221" s="2"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>43</v>
       </c>
@@ -3864,9 +3909,9 @@
       <c r="C222" s="2">
         <v>29968</v>
       </c>
-      <c r="D222" s="1"/>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="D222" s="2"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>43</v>
       </c>
@@ -3876,9 +3921,9 @@
       <c r="C223" s="2">
         <v>26764</v>
       </c>
-      <c r="D223" s="1"/>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="D223" s="2"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,9 +3933,9 @@
       <c r="C224" s="2">
         <v>141697</v>
       </c>
-      <c r="D224" s="1"/>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="D224" s="2"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>44</v>
       </c>
@@ -3900,9 +3945,9 @@
       <c r="C225" s="2">
         <v>110073</v>
       </c>
-      <c r="D225" s="1"/>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>44</v>
       </c>
@@ -3912,9 +3957,9 @@
       <c r="C226" s="2">
         <v>101323</v>
       </c>
-      <c r="D226" s="1"/>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="D226" s="2"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>44</v>
       </c>
@@ -3924,9 +3969,9 @@
       <c r="C227" s="2">
         <v>85192</v>
       </c>
-      <c r="D227" s="1"/>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="D227" s="2"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>44</v>
       </c>
@@ -3936,9 +3981,9 @@
       <c r="C228" s="2">
         <v>66935</v>
       </c>
-      <c r="D228" s="1"/>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="D228" s="2"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>44</v>
       </c>
@@ -3948,9 +3993,9 @@
       <c r="C229" s="2">
         <v>57705</v>
       </c>
-      <c r="D229" s="1"/>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="D229" s="2"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>44</v>
       </c>
@@ -3960,7 +4005,7 @@
       <c r="C230" s="2">
         <v>57630</v>
       </c>
-      <c r="D230" s="1"/>
+      <c r="D230" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Python_Projects_And_Repos\Billscrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDAD7A7-4377-40F7-BEA6-D55F56DF818B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627281DB-5569-404E-A49D-216C232482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="243">
   <si>
     <t>Provider</t>
   </si>
@@ -67,9 +67,6 @@
     <t>chandi</t>
   </si>
   <si>
-    <t>Dakshin Gujarat Vij Company Limited (dakshin har)</t>
-  </si>
-  <si>
     <t>Dakshin Haryana Bijli Vitran Nigam (DHBVN)</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>urban</t>
   </si>
   <si>
-    <t>MGVCL</t>
-  </si>
-  <si>
     <t>mahara</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>tata power - mumbai</t>
   </si>
   <si>
-    <t>Telangana State Southern Power Distribution Company Ltd</t>
-  </si>
-  <si>
     <t>TNEB</t>
   </si>
   <si>
@@ -136,12 +127,6 @@
     <t>tp central</t>
   </si>
   <si>
-    <t>TP Western Odisha Distribution Limited</t>
-  </si>
-  <si>
-    <t>UGVCL</t>
-  </si>
-  <si>
     <t>UHBVN</t>
   </si>
   <si>
@@ -379,30 +364,6 @@
     <t>3441036010H</t>
   </si>
   <si>
-    <t>13010282010</t>
-  </si>
-  <si>
-    <t>13010280475</t>
-  </si>
-  <si>
-    <t>18307205786</t>
-  </si>
-  <si>
-    <t>13010280980</t>
-  </si>
-  <si>
-    <t>15009058863</t>
-  </si>
-  <si>
-    <t>13010281021</t>
-  </si>
-  <si>
-    <t>13010280998</t>
-  </si>
-  <si>
-    <t>42524236846</t>
-  </si>
-  <si>
     <t>9786070297</t>
   </si>
   <si>
@@ -532,42 +493,6 @@
     <t>N2468016321</t>
   </si>
   <si>
-    <t>15632046745</t>
-  </si>
-  <si>
-    <t>15518243464</t>
-  </si>
-  <si>
-    <t>15518243456</t>
-  </si>
-  <si>
-    <t>14106136880</t>
-  </si>
-  <si>
-    <t>15509000040</t>
-  </si>
-  <si>
-    <t>15518243448</t>
-  </si>
-  <si>
-    <t>15518243430</t>
-  </si>
-  <si>
-    <t>15501001063</t>
-  </si>
-  <si>
-    <t>15518243472</t>
-  </si>
-  <si>
-    <t>15632046362</t>
-  </si>
-  <si>
-    <t>15501001055</t>
-  </si>
-  <si>
-    <t>15529066453</t>
-  </si>
-  <si>
     <t>410013884459</t>
   </si>
   <si>
@@ -682,9 +607,6 @@
     <t>900000039480</t>
   </si>
   <si>
-    <t>101086636</t>
-  </si>
-  <si>
     <t>050050031765</t>
   </si>
   <si>
@@ -764,21 +686,6 @@
   </si>
   <si>
     <t>80034100406</t>
-  </si>
-  <si>
-    <t>811422200262</t>
-  </si>
-  <si>
-    <t>74801148808</t>
-  </si>
-  <si>
-    <t>73049309059</t>
-  </si>
-  <si>
-    <t>71930238185</t>
-  </si>
-  <si>
-    <t>73049293349</t>
   </si>
   <si>
     <t>0374623514</t>
@@ -1211,9 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1242,7 +1147,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>99960</v>
@@ -1254,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2">
         <v>43330</v>
@@ -1266,7 +1171,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>12840</v>
@@ -1278,7 +1183,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2">
         <v>8080</v>
@@ -1290,7 +1195,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2">
         <v>48520</v>
@@ -1302,7 +1207,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2">
         <v>34390</v>
@@ -1314,7 +1219,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <v>9570</v>
@@ -1326,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <v>8170</v>
@@ -1338,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>379458</v>
@@ -1350,7 +1255,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2">
         <v>397122</v>
@@ -1362,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2">
         <v>317629</v>
@@ -1374,7 +1279,7 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2">
         <v>1263584</v>
@@ -1386,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2">
         <v>156417</v>
@@ -1398,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2">
         <v>117492</v>
@@ -1410,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2">
         <v>88390</v>
@@ -1422,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2">
         <v>62066</v>
@@ -1434,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C18" s="2">
         <v>61732</v>
@@ -1446,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2">
         <v>225516</v>
@@ -1458,7 +1363,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2">
         <v>6306</v>
@@ -1470,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C21" s="2">
         <v>518433</v>
@@ -1482,7 +1387,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2">
         <v>4517</v>
@@ -1494,7 +1399,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C23" s="2">
         <v>113893</v>
@@ -1506,7 +1411,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C24" s="2">
         <v>2449</v>
@@ -1518,7 +1423,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C25" s="2">
         <v>15870</v>
@@ -1530,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2">
         <v>13576</v>
@@ -1542,7 +1447,7 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2">
         <v>13569</v>
@@ -1554,7 +1459,7 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2">
         <v>8820</v>
@@ -1566,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29" s="2">
         <v>4946</v>
@@ -1578,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C30" s="2">
         <v>4887</v>
@@ -1590,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C31" s="2">
         <v>43288</v>
@@ -1602,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C32" s="2">
         <v>162539</v>
@@ -1614,7 +1519,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2">
         <v>97708</v>
@@ -1626,7 +1531,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2">
         <v>133472</v>
@@ -1638,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2">
         <v>14847</v>
@@ -1650,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2">
         <v>17820</v>
@@ -1662,7 +1567,7 @@
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2">
         <v>164140</v>
@@ -1674,7 +1579,7 @@
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2">
         <v>153640</v>
@@ -1686,7 +1591,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2">
         <v>140150</v>
@@ -1698,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2">
         <v>136060</v>
@@ -1710,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C41" s="2">
         <v>108380</v>
@@ -1722,7 +1627,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C42" s="2">
         <v>106670</v>
@@ -1734,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C43" s="2">
         <v>98580</v>
@@ -1746,7 +1651,7 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2">
         <v>97830</v>
@@ -1758,7 +1663,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C45" s="2">
         <v>87410</v>
@@ -1770,7 +1675,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C46" s="2">
         <v>136740</v>
@@ -1782,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C47" s="2">
         <v>135760</v>
@@ -1794,7 +1699,7 @@
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C48" s="2">
         <v>73170</v>
@@ -1806,7 +1711,7 @@
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C49" s="2">
         <v>68240</v>
@@ -1818,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C50" s="2">
         <v>66570</v>
@@ -1830,7 +1735,7 @@
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C51" s="2">
         <v>47250</v>
@@ -1842,7 +1747,7 @@
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C52" s="2">
         <v>42300</v>
@@ -1854,7 +1759,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C53" s="2">
         <v>2210</v>
@@ -1866,7 +1771,7 @@
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C54" s="2">
         <v>54530</v>
@@ -1878,7 +1783,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2">
         <v>49180</v>
@@ -1890,7 +1795,7 @@
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C56" s="2">
         <v>47880</v>
@@ -1902,7 +1807,7 @@
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C57" s="2">
         <v>47510</v>
@@ -1914,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C58" s="2">
         <v>43880</v>
@@ -1926,7 +1831,7 @@
         <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C59" s="2">
         <v>62740</v>
@@ -1938,7 +1843,7 @@
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C60" s="2">
         <v>130222</v>
@@ -1950,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C61" s="2">
         <v>19820</v>
@@ -1962,7 +1867,7 @@
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C62" s="2">
         <v>18210</v>
@@ -1974,7 +1879,7 @@
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C63" s="2">
         <v>17089</v>
@@ -1986,7 +1891,7 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C64" s="2">
         <v>13563</v>
@@ -1998,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C65" s="2">
         <v>12886</v>
@@ -2010,7 +1915,7 @@
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C66" s="2">
         <v>4687</v>
@@ -2022,7 +1927,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C67" s="2">
         <v>896</v>
@@ -2034,7 +1939,7 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C68" s="2">
         <v>480</v>
@@ -2046,7 +1951,7 @@
         <v>14</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C69" s="2">
         <v>52814</v>
@@ -2058,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C70" s="2">
         <v>31143</v>
@@ -2070,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C71" s="2">
         <v>23487</v>
@@ -2082,7 +1987,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C72" s="2">
         <v>11596</v>
@@ -2094,7 +1999,7 @@
         <v>14</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C73" s="2">
         <v>4119</v>
@@ -2106,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C74" s="2">
         <v>395396</v>
@@ -2118,7 +2023,7 @@
         <v>14</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2">
         <v>8485</v>
@@ -2126,107 +2031,59 @@
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C76" s="2">
-        <v>68467</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C77" s="2">
-        <v>66801</v>
-      </c>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C78" s="2">
-        <v>29603</v>
-      </c>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" s="2">
-        <v>7494</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1658</v>
-      </c>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C81" s="2">
-        <v>24</v>
-      </c>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="2">
-        <v>24</v>
-      </c>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="2">
-        <v>48075</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2">
         <v>316294</v>
@@ -2235,10 +2092,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2">
         <v>323932</v>
@@ -2247,10 +2104,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2">
         <v>133698</v>
@@ -2259,10 +2116,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C87" s="2">
         <v>85457</v>
@@ -2271,10 +2128,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C88" s="2">
         <v>68970</v>
@@ -2283,10 +2140,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C89" s="2">
         <v>58611</v>
@@ -2295,10 +2152,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C90" s="2">
         <v>55164</v>
@@ -2307,10 +2164,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C91" s="2">
         <v>43759</v>
@@ -2319,10 +2176,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2">
         <v>43309</v>
@@ -2331,10 +2188,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C93" s="2">
         <v>26980</v>
@@ -2343,10 +2200,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="C94" s="2">
         <v>26825</v>
@@ -2355,10 +2212,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C95" s="2">
         <v>22274</v>
@@ -2367,10 +2224,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2">
         <v>4430</v>
@@ -2379,10 +2236,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2">
         <v>4073</v>
@@ -2391,10 +2248,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C98" s="2">
         <v>1269</v>
@@ -2403,10 +2260,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C99" s="2">
         <v>14041</v>
@@ -2415,10 +2272,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C100" s="2">
         <v>180456</v>
@@ -2427,10 +2284,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C101" s="2">
         <v>608366</v>
@@ -2439,10 +2296,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C102" s="2">
         <v>3358</v>
@@ -2451,10 +2308,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C103" s="2">
         <v>824652</v>
@@ -2463,10 +2320,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C104" s="2">
         <v>668275</v>
@@ -2475,10 +2332,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C105" s="2">
         <v>313454</v>
@@ -2487,10 +2344,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C106" s="2">
         <v>248219</v>
@@ -2499,10 +2356,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C107" s="2">
         <v>189164</v>
@@ -2511,10 +2368,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C108" s="2">
         <v>171251</v>
@@ -2523,10 +2380,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C109" s="2">
         <v>479976</v>
@@ -2535,10 +2392,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C110" s="2">
         <v>577210</v>
@@ -2547,10 +2404,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2">
         <v>108050</v>
@@ -2559,10 +2416,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C112" s="2">
         <v>2256695</v>
@@ -2571,10 +2428,10 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C113" s="2">
         <v>1867855</v>
@@ -2583,10 +2440,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C114" s="2">
         <v>1542632</v>
@@ -2595,10 +2452,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C115" s="2">
         <v>978760</v>
@@ -2607,10 +2464,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C116" s="2">
         <v>614602</v>
@@ -2619,10 +2476,10 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C117" s="2">
         <v>583631</v>
@@ -2631,10 +2488,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="C118" s="2">
         <v>387790</v>
@@ -2643,10 +2500,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C119" s="2">
         <v>359625</v>
@@ -2655,10 +2512,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C120" s="2">
         <v>350336</v>
@@ -2667,10 +2524,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C121" s="2">
         <v>233878</v>
@@ -2679,10 +2536,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C122" s="2">
         <v>151849</v>
@@ -2691,10 +2548,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C123" s="2">
         <v>131631</v>
@@ -2703,10 +2560,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C124" s="2">
         <v>40142</v>
@@ -2715,10 +2572,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C125" s="2">
         <v>30226</v>
@@ -2727,10 +2584,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C126" s="2">
         <v>172672</v>
@@ -2738,155 +2595,83 @@
       <c r="D126" s="2"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C127" s="2">
-        <v>85262</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="2"/>
       <c r="D127" s="2"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C128" s="2">
-        <v>82152</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="2"/>
       <c r="D128" s="2"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C129" s="2">
-        <v>81176</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="2"/>
       <c r="D129" s="2"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C130" s="2">
-        <v>75844</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="2"/>
       <c r="D130" s="2"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C131" s="2">
-        <v>62041</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="2"/>
       <c r="D131" s="2"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C132" s="2">
-        <v>52838</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="2"/>
       <c r="D132" s="2"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C133" s="2">
-        <v>47183</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="2"/>
       <c r="D133" s="2"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C134" s="2">
-        <v>44385</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="2"/>
       <c r="D134" s="2"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C135" s="2">
-        <v>39700</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="2"/>
       <c r="D135" s="2"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C136" s="2">
-        <v>13336</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="2"/>
       <c r="D136" s="2"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C137" s="2">
-        <v>36491</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="2"/>
       <c r="D137" s="2"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C138" s="2">
-        <v>15076</v>
-      </c>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="2"/>
       <c r="D138" s="2"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C139" s="2">
         <v>283860</v>
@@ -2897,10 +2682,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C140" s="2">
         <v>125510</v>
@@ -2911,10 +2696,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="C141" s="2">
         <v>118550</v>
@@ -2925,10 +2710,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="C142" s="2">
         <v>116960</v>
@@ -2939,10 +2724,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="C143" s="2">
         <v>36520</v>
@@ -2953,10 +2738,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C144" s="2">
         <v>14590</v>
@@ -2967,10 +2752,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="C145" s="2">
         <v>2170</v>
@@ -2981,10 +2766,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C146" s="2">
         <v>209830</v>
@@ -2995,10 +2780,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C147" s="2">
         <v>102610</v>
@@ -3009,10 +2794,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C148" s="2">
         <v>44440</v>
@@ -3023,10 +2808,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C149" s="2">
         <v>38440</v>
@@ -3037,10 +2822,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="C150" s="2">
         <v>614980</v>
@@ -3049,10 +2834,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="C151" s="2">
         <v>402363</v>
@@ -3061,10 +2846,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="C152" s="2">
         <v>3403</v>
@@ -3073,10 +2858,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="C153" s="2">
         <v>357252</v>
@@ -3085,10 +2870,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="C154" s="2">
         <v>72143</v>
@@ -3097,10 +2882,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="C155" s="2">
         <v>57221</v>
@@ -3109,10 +2894,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C156" s="2">
         <v>45963</v>
@@ -3121,10 +2906,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="C157" s="2">
         <v>162120</v>
@@ -3133,10 +2918,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="C158" s="2">
         <v>47804</v>
@@ -3145,10 +2930,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C159" s="2">
         <v>11488</v>
@@ -3157,10 +2942,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="C160" s="2">
         <v>33402</v>
@@ -3169,10 +2954,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="C161" s="2">
         <v>71601</v>
@@ -3181,10 +2966,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="C162" s="2">
         <v>44324</v>
@@ -3193,10 +2978,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C163" s="2">
         <v>397100</v>
@@ -3205,10 +2990,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="C164" s="2">
         <v>269280</v>
@@ -3217,10 +3002,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="C165" s="2">
         <v>517810</v>
@@ -3229,10 +3014,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="C166" s="2">
         <v>15010</v>
@@ -3241,10 +3026,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="C167" s="2">
         <v>8620</v>
@@ -3253,10 +3038,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="C168" s="2">
         <v>56042</v>
@@ -3265,10 +3050,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C169" s="2">
         <v>42194</v>
@@ -3277,10 +3062,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="C170" s="2">
         <v>23940</v>
@@ -3289,10 +3074,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="C171" s="2">
         <v>34666</v>
@@ -3301,10 +3086,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="C172" s="2">
         <v>27974</v>
@@ -3313,10 +3098,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="C173" s="2">
         <v>27732</v>
@@ -3325,10 +3110,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="C174" s="2">
         <v>26230</v>
@@ -3337,10 +3122,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="C175" s="2">
         <v>29228</v>
@@ -3349,10 +3134,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C176" s="2">
         <v>33765</v>
@@ -3360,23 +3145,17 @@
       <c r="D176" s="2"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C177" s="2">
-        <v>1869</v>
-      </c>
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="2"/>
       <c r="D177" s="2"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C178" s="2">
         <v>213801</v>
@@ -3385,10 +3164,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="C179" s="2">
         <v>445251</v>
@@ -3397,10 +3176,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="C180" s="2">
         <v>221224</v>
@@ -3409,10 +3188,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="C181" s="2">
         <v>199901</v>
@@ -3421,10 +3200,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="C182" s="2">
         <v>160571</v>
@@ -3433,10 +3212,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C183" s="2">
         <v>151762</v>
@@ -3445,10 +3224,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="C184" s="2">
         <v>126495</v>
@@ -3457,10 +3236,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="C185" s="2">
         <v>111923</v>
@@ -3469,10 +3248,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="C186" s="2">
         <v>50530</v>
@@ -3481,10 +3260,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="C187" s="2">
         <v>18278</v>
@@ -3493,10 +3272,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C188" s="2">
         <v>90941</v>
@@ -3505,10 +3284,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C189" s="2">
         <v>1251000</v>
@@ -3517,10 +3296,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C190" s="2">
         <v>76150</v>
@@ -3529,10 +3308,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="C191" s="2">
         <v>60840</v>
@@ -3541,10 +3320,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="C192" s="2">
         <v>56280</v>
@@ -3553,10 +3332,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C193" s="2">
         <v>50290</v>
@@ -3565,10 +3344,10 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C194" s="2">
         <v>68910</v>
@@ -3577,10 +3356,10 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C195" s="2">
         <v>63600</v>
@@ -3589,10 +3368,10 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C196" s="2">
         <v>52480</v>
@@ -3601,10 +3380,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C197" s="2">
         <v>50270</v>
@@ -3613,10 +3392,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="C198" s="2">
         <v>45940</v>
@@ -3625,10 +3404,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="C199" s="2">
         <v>7920</v>
@@ -3637,10 +3416,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="C200" s="2">
         <v>4300</v>
@@ -3649,10 +3428,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="C201" s="2">
         <v>3390</v>
@@ -3661,10 +3440,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>245</v>
+        <v>219</v>
       </c>
       <c r="C202" s="2">
         <v>1850</v>
@@ -3673,10 +3452,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C203" s="2">
         <v>33480</v>
@@ -3685,10 +3464,10 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="C204" s="2">
         <v>130585</v>
@@ -3696,71 +3475,41 @@
       <c r="D204" s="2"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C205" s="2">
-        <v>1756</v>
-      </c>
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C206" s="2">
-        <v>105014</v>
-      </c>
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="2"/>
       <c r="D206" s="2"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C207" s="2">
-        <v>97395</v>
-      </c>
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="2"/>
       <c r="D207" s="2"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C208" s="2">
-        <v>44217</v>
-      </c>
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="2"/>
       <c r="D208" s="2"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C209" s="2">
-        <v>4623</v>
-      </c>
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="2"/>
       <c r="D209" s="2"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="C210" s="2">
         <v>160144</v>
@@ -3769,10 +3518,10 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="C211" s="2">
         <v>104947</v>
@@ -3781,10 +3530,10 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C212" s="2">
         <v>16001</v>
@@ -3793,10 +3542,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="C213" s="2">
         <v>14364</v>
@@ -3805,10 +3554,10 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C214" s="2">
         <v>8508</v>
@@ -3817,10 +3566,10 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="C215" s="2">
         <v>6996</v>
@@ -3829,10 +3578,10 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="C216" s="2">
         <v>6906</v>
@@ -3841,10 +3590,10 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="C217" s="2">
         <v>3022</v>
@@ -3853,10 +3602,10 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C218" s="2">
         <v>3185</v>
@@ -3865,10 +3614,10 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="C219" s="2">
         <v>311627</v>
@@ -3877,10 +3626,10 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="C220" s="2">
         <v>124220</v>
@@ -3889,10 +3638,10 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="C221" s="2">
         <v>46850</v>
@@ -3901,10 +3650,10 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="C222" s="2">
         <v>29968</v>
@@ -3913,10 +3662,10 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="C223" s="2">
         <v>26764</v>
@@ -3925,10 +3674,10 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="C224" s="2">
         <v>141697</v>
@@ -3937,10 +3686,10 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="C225" s="2">
         <v>110073</v>
@@ -3949,10 +3698,10 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="C226" s="2">
         <v>101323</v>
@@ -3961,10 +3710,10 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="C227" s="2">
         <v>85192</v>
@@ -3973,10 +3722,10 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="C228" s="2">
         <v>66935</v>
@@ -3985,10 +3734,10 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="C229" s="2">
         <v>57705</v>
@@ -3997,10 +3746,10 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="C230" s="2">
         <v>57630</v>

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Python_Projects_And_Repos\Billscrape\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627281DB-5569-404E-A49D-216C232482EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="273">
   <si>
     <t>Provider</t>
   </si>
@@ -67,12 +61,15 @@
     <t>chandi</t>
   </si>
   <si>
-    <t>Dakshin Haryana Bijli Vitran Nigam (DHBVN)</t>
+    <t>Dakshin Gujarat Vij Company Limited (DGVCL)</t>
   </si>
   <si>
     <t>dakshin har</t>
   </si>
   <si>
+    <t>DGVCL</t>
+  </si>
+  <si>
     <t>Goa Electricity Department</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
     <t>urban</t>
   </si>
   <si>
+    <t>MGVCL</t>
+  </si>
+  <si>
     <t>mahara</t>
   </si>
   <si>
@@ -115,6 +115,9 @@
     <t>tata power - mumbai</t>
   </si>
   <si>
+    <t>Telangana State Southern Power Distribution Company Ltd</t>
+  </si>
+  <si>
     <t>TNEB</t>
   </si>
   <si>
@@ -127,18 +130,21 @@
     <t>tp central</t>
   </si>
   <si>
+    <t>TP Western Odisha Distribution Limited</t>
+  </si>
+  <si>
+    <t>UGVCL</t>
+  </si>
+  <si>
     <t>UHBVN</t>
   </si>
   <si>
-    <t>UPCL</t>
+    <t>uttarakhand</t>
   </si>
   <si>
     <t>Uttar Haryana Bijli Vitran Nigam (UHBVN)</t>
   </si>
   <si>
-    <t>uttarakhand</t>
-  </si>
-  <si>
     <t>west bengal state</t>
   </si>
   <si>
@@ -364,6 +370,30 @@
     <t>3441036010H</t>
   </si>
   <si>
+    <t>13010282010</t>
+  </si>
+  <si>
+    <t>13010280475</t>
+  </si>
+  <si>
+    <t>18307205786</t>
+  </si>
+  <si>
+    <t>13010280980</t>
+  </si>
+  <si>
+    <t>15009058863</t>
+  </si>
+  <si>
+    <t>13010281021</t>
+  </si>
+  <si>
+    <t>13010280998</t>
+  </si>
+  <si>
+    <t>42524236846</t>
+  </si>
+  <si>
     <t>9786070297</t>
   </si>
   <si>
@@ -493,6 +523,42 @@
     <t>N2468016321</t>
   </si>
   <si>
+    <t>15632046745</t>
+  </si>
+  <si>
+    <t>15518243464</t>
+  </si>
+  <si>
+    <t>15518243456</t>
+  </si>
+  <si>
+    <t>14106136880</t>
+  </si>
+  <si>
+    <t>15509000040</t>
+  </si>
+  <si>
+    <t>15518243448</t>
+  </si>
+  <si>
+    <t>15518243430</t>
+  </si>
+  <si>
+    <t>15501001063</t>
+  </si>
+  <si>
+    <t>15518243472</t>
+  </si>
+  <si>
+    <t>15632046362</t>
+  </si>
+  <si>
+    <t>15501001055</t>
+  </si>
+  <si>
+    <t>15529066453</t>
+  </si>
+  <si>
     <t>410013884459</t>
   </si>
   <si>
@@ -607,6 +673,9 @@
     <t>900000039480</t>
   </si>
   <si>
+    <t>101086636</t>
+  </si>
+  <si>
     <t>050050031765</t>
   </si>
   <si>
@@ -686,6 +755,21 @@
   </si>
   <si>
     <t>80034100406</t>
+  </si>
+  <si>
+    <t>811422200262</t>
+  </si>
+  <si>
+    <t>74801148808</t>
+  </si>
+  <si>
+    <t>73049309059</t>
+  </si>
+  <si>
+    <t>71930238185</t>
+  </si>
+  <si>
+    <t>73049293349</t>
   </si>
   <si>
     <t>0374623514</t>
@@ -754,8 +838,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,7 +876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,42 +884,32 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
+    <dxf/>
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:D230" totalsRowShown="0">
-  <autoFilter ref="A1:D230" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D230" totalsRowShown="0">
+  <autoFilter ref="A1:D230"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Provider"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mobile"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="₹ Amt." dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="BU" dataDxfId="0"/>
+    <tableColumn id="1" name="Provider" dataDxfId="0"/>
+    <tableColumn id="2" name="Mobile" dataDxfId="0"/>
+    <tableColumn id="3" name="₹ Amt." dataDxfId="1"/>
+    <tableColumn id="4" name="BU" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -870,7 +947,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -904,7 +981,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -939,10 +1015,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1115,12 +1190,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -1128,7 +1203,7 @@
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1142,1536 +1217,1656 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
         <v>99960</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2">
         <v>43330</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C4" s="2">
         <v>12840</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2">
         <v>8080</v>
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2">
         <v>48520</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2">
         <v>34390</v>
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>9570</v>
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2">
         <v>8170</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2">
         <v>379458</v>
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
         <v>397122</v>
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2">
         <v>317629</v>
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2">
         <v>1263584</v>
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2">
         <v>156417</v>
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2">
         <v>117492</v>
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2">
         <v>88390</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C17" s="2">
         <v>62066</v>
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
         <v>61732</v>
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2">
         <v>225516</v>
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2">
         <v>6306</v>
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" s="2">
         <v>518433</v>
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2">
         <v>4517</v>
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2">
         <v>113893</v>
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
         <v>2449</v>
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2">
         <v>15870</v>
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2">
         <v>13576</v>
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2">
         <v>13569</v>
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2">
         <v>8820</v>
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2">
         <v>4946</v>
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2">
         <v>4887</v>
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2">
         <v>43288</v>
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2">
         <v>162539</v>
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2">
         <v>97708</v>
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2">
         <v>133472</v>
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2">
         <v>14847</v>
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2">
         <v>17820</v>
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2">
         <v>164140</v>
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2">
         <v>153640</v>
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2">
         <v>140150</v>
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C40" s="2">
         <v>136060</v>
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2">
         <v>108380</v>
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C42" s="2">
         <v>106670</v>
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2">
         <v>98580</v>
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2">
         <v>97830</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2">
         <v>87410</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2">
         <v>136740</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2">
         <v>135760</v>
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2">
         <v>73170</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2">
         <v>68240</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2">
         <v>66570</v>
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2">
         <v>47250</v>
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2">
         <v>42300</v>
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2">
         <v>2210</v>
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2">
         <v>54530</v>
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2">
         <v>49180</v>
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2">
         <v>47880</v>
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2">
         <v>47510</v>
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2">
         <v>43880</v>
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2">
         <v>62740</v>
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C60" s="2">
         <v>130222</v>
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C61" s="2">
         <v>19820</v>
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C62" s="2">
         <v>18210</v>
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C63" s="2">
         <v>17089</v>
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C64" s="2">
         <v>13563</v>
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2">
         <v>12886</v>
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C66" s="2">
         <v>4687</v>
       </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C67" s="2">
         <v>896</v>
       </c>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C68" s="2">
         <v>480</v>
       </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C69" s="2">
         <v>52814</v>
       </c>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C70" s="2">
         <v>31143</v>
       </c>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C71" s="2">
         <v>23487</v>
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C72" s="2">
         <v>11596</v>
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C73" s="2">
         <v>4119</v>
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C74" s="2">
         <v>395396</v>
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C75" s="2">
         <v>8485</v>
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="2"/>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76" s="2">
+        <v>68467</v>
+      </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="2"/>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="2">
+        <v>66801</v>
+      </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="2"/>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78" s="2">
+        <v>29603</v>
+      </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="2"/>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="2">
+        <v>7494</v>
+      </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="2"/>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1658</v>
+      </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="2"/>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="2">
+        <v>24</v>
+      </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="2"/>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="2">
+        <v>24</v>
+      </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="2"/>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="2">
+        <v>48075</v>
+      </c>
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C84" s="2">
         <v>316294</v>
       </c>
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C85" s="2">
         <v>323932</v>
       </c>
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C86" s="2">
         <v>133698</v>
       </c>
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C87" s="2">
         <v>85457</v>
       </c>
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C88" s="2">
         <v>68970</v>
       </c>
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C89" s="2">
         <v>58611</v>
       </c>
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C90" s="2">
         <v>55164</v>
       </c>
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C91" s="2">
         <v>43759</v>
       </c>
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C92" s="2">
         <v>43309</v>
       </c>
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="C93" s="2">
         <v>26980</v>
       </c>
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2">
         <v>26825</v>
       </c>
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C95" s="2">
         <v>22274</v>
       </c>
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C96" s="2">
         <v>4430</v>
       </c>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C97" s="2">
         <v>4073</v>
       </c>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C98" s="2">
         <v>1269</v>
       </c>
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C99" s="2">
         <v>14041</v>
       </c>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2">
         <v>180456</v>
       </c>
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C101" s="2">
         <v>608366</v>
       </c>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C102" s="2">
         <v>3358</v>
       </c>
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C103" s="2">
         <v>824652</v>
       </c>
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C104" s="2">
         <v>668275</v>
       </c>
       <c r="D104" s="2"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C105" s="2">
         <v>313454</v>
       </c>
       <c r="D105" s="2"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C106" s="2">
         <v>248219</v>
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C107" s="2">
         <v>189164</v>
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C108" s="2">
         <v>171251</v>
       </c>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C109" s="2">
         <v>479976</v>
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2">
         <v>577210</v>
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C111" s="2">
         <v>108050</v>
       </c>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C112" s="2">
         <v>2256695</v>
       </c>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C113" s="2">
         <v>1867855</v>
       </c>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C114" s="2">
         <v>1542632</v>
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C115" s="2">
         <v>978760</v>
       </c>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C116" s="2">
         <v>614602</v>
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="C117" s="2">
         <v>583631</v>
       </c>
       <c r="D117" s="2"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C118" s="2">
         <v>387790</v>
       </c>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="C119" s="2">
         <v>359625</v>
       </c>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C120" s="2">
         <v>350336</v>
       </c>
       <c r="D120" s="2"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C121" s="2">
         <v>233878</v>
       </c>
       <c r="D121" s="2"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C122" s="2">
         <v>151849</v>
       </c>
       <c r="D122" s="2"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C123" s="2">
         <v>131631</v>
       </c>
       <c r="D123" s="2"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C124" s="2">
         <v>40142</v>
       </c>
       <c r="D124" s="2"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C125" s="2">
         <v>30226</v>
       </c>
       <c r="D125" s="2"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C126" s="2">
         <v>172672</v>
       </c>
       <c r="D126" s="2"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="2"/>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="2">
+        <v>85262</v>
+      </c>
       <c r="D127" s="2"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="2"/>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C128" s="2">
+        <v>82152</v>
+      </c>
       <c r="D128" s="2"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="2"/>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C129" s="2">
+        <v>81176</v>
+      </c>
       <c r="D129" s="2"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="2"/>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C130" s="2">
+        <v>75844</v>
+      </c>
       <c r="D130" s="2"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="2"/>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C131" s="2">
+        <v>62041</v>
+      </c>
       <c r="D131" s="2"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="2"/>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C132" s="2">
+        <v>52838</v>
+      </c>
       <c r="D132" s="2"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="2"/>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" s="2">
+        <v>47183</v>
+      </c>
       <c r="D133" s="2"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="2"/>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44385</v>
+      </c>
       <c r="D134" s="2"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="2"/>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C135" s="2">
+        <v>39700</v>
+      </c>
       <c r="D135" s="2"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="2"/>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C136" s="2">
+        <v>13336</v>
+      </c>
       <c r="D136" s="2"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="2"/>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" s="2">
+        <v>36491</v>
+      </c>
       <c r="D137" s="2"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="2"/>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C138" s="2">
+        <v>15076</v>
+      </c>
       <c r="D138" s="2"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C139" s="2">
         <v>283860</v>
@@ -2680,12 +2875,12 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C140" s="2">
         <v>125510</v>
@@ -2694,12 +2889,12 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C141" s="2">
         <v>118550</v>
@@ -2708,12 +2903,12 @@
         <v>4686</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="C142" s="2">
         <v>116960</v>
@@ -2722,12 +2917,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C143" s="2">
         <v>36520</v>
@@ -2736,12 +2931,12 @@
         <v>4681</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="C144" s="2">
         <v>14590</v>
@@ -2750,12 +2945,12 @@
         <v>4681</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="C145" s="2">
         <v>2170</v>
@@ -2764,12 +2959,12 @@
         <v>4640</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="C146" s="2">
         <v>209830</v>
@@ -2778,12 +2973,12 @@
         <v>4642</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C147" s="2">
         <v>102610</v>
@@ -2792,12 +2987,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C148" s="2">
         <v>44440</v>
@@ -2806,12 +3001,12 @@
         <v>4541</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C149" s="2">
         <v>38440</v>
@@ -2820,936 +3015,972 @@
         <v>4527</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C150" s="2">
         <v>614980</v>
       </c>
       <c r="D150" s="2"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="C151" s="2">
         <v>402363</v>
       </c>
       <c r="D151" s="2"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C152" s="2">
         <v>3403</v>
       </c>
       <c r="D152" s="2"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C153" s="2">
         <v>357252</v>
       </c>
       <c r="D153" s="2"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C154" s="2">
         <v>72143</v>
       </c>
       <c r="D154" s="2"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="C155" s="2">
         <v>57221</v>
       </c>
       <c r="D155" s="2"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="C156" s="2">
         <v>45963</v>
       </c>
       <c r="D156" s="2"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C157" s="2">
         <v>162120</v>
       </c>
       <c r="D157" s="2"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="C158" s="2">
         <v>47804</v>
       </c>
       <c r="D158" s="2"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C159" s="2">
         <v>11488</v>
       </c>
       <c r="D159" s="2"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C160" s="2">
         <v>33402</v>
       </c>
       <c r="D160" s="2"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C161" s="2">
         <v>71601</v>
       </c>
       <c r="D161" s="2"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C162" s="2">
         <v>44324</v>
       </c>
       <c r="D162" s="2"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="C163" s="2">
         <v>397100</v>
       </c>
       <c r="D163" s="2"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C164" s="2">
         <v>269280</v>
       </c>
       <c r="D164" s="2"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C165" s="2">
         <v>517810</v>
       </c>
       <c r="D165" s="2"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C166" s="2">
         <v>15010</v>
       </c>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="C167" s="2">
         <v>8620</v>
       </c>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C168" s="2">
         <v>56042</v>
       </c>
       <c r="D168" s="2"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C169" s="2">
         <v>42194</v>
       </c>
       <c r="D169" s="2"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C170" s="2">
         <v>23940</v>
       </c>
       <c r="D170" s="2"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="C171" s="2">
         <v>34666</v>
       </c>
       <c r="D171" s="2"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="C172" s="2">
         <v>27974</v>
       </c>
       <c r="D172" s="2"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C173" s="2">
         <v>27732</v>
       </c>
       <c r="D173" s="2"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C174" s="2">
         <v>26230</v>
       </c>
       <c r="D174" s="2"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C175" s="2">
         <v>29228</v>
       </c>
       <c r="D175" s="2"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C176" s="2">
         <v>33765</v>
       </c>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="2"/>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C177" s="2">
+        <v>1869</v>
+      </c>
       <c r="D177" s="2"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C178" s="2">
         <v>213801</v>
       </c>
       <c r="D178" s="2"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="C179" s="2">
         <v>445251</v>
       </c>
       <c r="D179" s="2"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C180" s="2">
         <v>221224</v>
       </c>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="C181" s="2">
         <v>199901</v>
       </c>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C182" s="2">
         <v>160571</v>
       </c>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="C183" s="2">
         <v>151762</v>
       </c>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C184" s="2">
         <v>126495</v>
       </c>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="C185" s="2">
         <v>111923</v>
       </c>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C186" s="2">
         <v>50530</v>
       </c>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="C187" s="2">
         <v>18278</v>
       </c>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="C188" s="2">
         <v>90941</v>
       </c>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C189" s="2">
         <v>1251000</v>
       </c>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="C190" s="2">
         <v>76150</v>
       </c>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C191" s="2">
         <v>60840</v>
       </c>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="C192" s="2">
         <v>56280</v>
       </c>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C193" s="2">
         <v>50290</v>
       </c>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="C194" s="2">
         <v>68910</v>
       </c>
       <c r="D194" s="2"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="C195" s="2">
         <v>63600</v>
       </c>
       <c r="D195" s="2"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="C196" s="2">
         <v>52480</v>
       </c>
       <c r="D196" s="2"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="C197" s="2">
         <v>50270</v>
       </c>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="C198" s="2">
         <v>45940</v>
       </c>
       <c r="D198" s="2"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="C199" s="2">
         <v>7920</v>
       </c>
       <c r="D199" s="2"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="C200" s="2">
         <v>4300</v>
       </c>
       <c r="D200" s="2"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C201" s="2">
         <v>3390</v>
       </c>
       <c r="D201" s="2"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C202" s="2">
         <v>1850</v>
       </c>
       <c r="D202" s="2"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4">
       <c r="A203" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="C203" s="2">
         <v>33480</v>
       </c>
       <c r="D203" s="2"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="C204" s="2">
         <v>130585</v>
       </c>
       <c r="D204" s="2"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="2"/>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C205" s="2">
+        <v>1756</v>
+      </c>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="2"/>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C206" s="2">
+        <v>105014</v>
+      </c>
       <c r="D206" s="2"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
-      <c r="C207" s="2"/>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C207" s="2">
+        <v>97395</v>
+      </c>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="2"/>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C208" s="2">
+        <v>44217</v>
+      </c>
       <c r="D208" s="2"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="2"/>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C209" s="2">
+        <v>4623</v>
+      </c>
       <c r="D209" s="2"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="C210" s="2">
         <v>160144</v>
       </c>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="C211" s="2">
         <v>104947</v>
       </c>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="C212" s="2">
         <v>16001</v>
       </c>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="C213" s="2">
         <v>14364</v>
       </c>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="C214" s="2">
         <v>8508</v>
       </c>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="C215" s="2">
         <v>6996</v>
       </c>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C216" s="2">
         <v>6906</v>
       </c>
       <c r="D216" s="2"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4">
       <c r="A217" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="C217" s="2">
         <v>3022</v>
       </c>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="C218" s="2">
         <v>3185</v>
       </c>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="C219" s="2">
         <v>311627</v>
       </c>
       <c r="D219" s="2"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="C220" s="2">
         <v>124220</v>
       </c>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C221" s="2">
         <v>46850</v>
       </c>
       <c r="D221" s="2"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="C222" s="2">
         <v>29968</v>
       </c>
       <c r="D222" s="2"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="C223" s="2">
         <v>26764</v>
       </c>
       <c r="D223" s="2"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="C224" s="2">
         <v>141697</v>
       </c>
       <c r="D224" s="2"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4">
       <c r="A225" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="C225" s="2">
         <v>110073</v>
       </c>
       <c r="D225" s="2"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4">
       <c r="A226" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="C226" s="2">
         <v>101323</v>
       </c>
       <c r="D226" s="2"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4">
       <c r="A227" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="C227" s="2">
         <v>85192</v>
       </c>
       <c r="D227" s="2"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4">
       <c r="A228" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C228" s="2">
         <v>66935</v>
       </c>
       <c r="D228" s="2"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4">
       <c r="A229" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="C229" s="2">
         <v>57705</v>
       </c>
       <c r="D229" s="2"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4">
       <c r="A230" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="C230" s="2">
         <v>57630</v>

--- a/dataframe.xlsx
+++ b/dataframe.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drish\Python_Projects_And_Repos\Billscrape\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC928710-5472-4FD4-B482-7EE6E26C84BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,7 +37,7 @@
     <t>mahara</t>
   </si>
   <si>
-    <t>tata power - mumbai</t>
+    <t>tata power - delhi</t>
   </si>
   <si>
     <t>065510508364</t>
@@ -283,11 +289,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,7 +324,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -329,32 +332,42 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf/>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0;[Red]-#,##0"/>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0;[Red]\-#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:D83" totalsRowShown="0">
-  <autoFilter ref="A1:D83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:D83" totalsRowShown="0">
+  <autoFilter ref="A1:D83" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Provider" dataDxfId="0"/>
-    <tableColumn id="2" name="Mobile" dataDxfId="0"/>
-    <tableColumn id="3" name="₹ Amt." dataDxfId="1"/>
-    <tableColumn id="4" name="BU" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Provider"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mobile"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="₹ Amt." dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="BU" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +405,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -426,6 +439,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -460,9 +474,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -635,20 +650,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -676,7 +693,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -690,7 +707,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -704,7 +721,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -718,7 +735,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,7 +749,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -746,7 +763,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +777,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -774,7 +791,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -788,7 +805,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -802,7 +819,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -816,7 +833,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,7 +847,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,7 +861,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,7 +875,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,7 +889,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,7 +903,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,7 +917,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -914,7 +931,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -928,7 +945,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -942,7 +959,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -956,7 +973,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -970,7 +987,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -984,7 +1001,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -998,7 +1015,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1029,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -1026,7 +1043,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1057,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1071,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1085,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -1082,7 +1099,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1096,7 +1113,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1110,7 +1127,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1141,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1155,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
@@ -1152,7 +1169,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1183,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1197,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1211,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>4</v>
       </c>
@@ -1208,7 +1225,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>4</v>
       </c>
@@ -1222,7 +1239,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1253,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1267,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1281,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1295,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1323,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +1337,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1351,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1365,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1379,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1393,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1407,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1421,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1435,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1449,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1463,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1477,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1491,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
@@ -1488,7 +1505,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1519,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1533,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1547,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1561,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1575,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1589,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1603,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1617,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1631,7 @@
         <v>4748</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1645,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>4</v>
       </c>
@@ -1642,7 +1659,7 @@
         <v>4902</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>5</v>
       </c>
@@ -1654,7 +1671,7 @@
       </c>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1683,7 @@
       </c>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>5</v>
       </c>
@@ -1678,7 +1695,7 @@
       </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>5</v>
       </c>
@@ -1690,7 +1707,7 @@
       </c>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>5</v>
       </c>
@@ -1702,7 +1719,7 @@
       </c>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>5</v>
       </c>
@@ -1714,7 +1731,7 @@
       </c>
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>5</v>
       </c>
@@ -1726,7 +1743,7 @@
       </c>
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>5</v>
       </c>
@@ -1738,7 +1755,7 @@
       </c>
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>5</v>
       </c>
@@ -1750,7 +1767,7 @@
       </c>
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>5</v>
       </c>
@@ -1762,7 +1779,7 @@
       </c>
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>5</v>
       </c>
@@ -1774,7 +1791,7 @@
       </c>
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>5</v>
       </c>
